--- a/heatpump/modbus_wwp.xlsx
+++ b/heatpump/modbus_wwp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Konfiguration" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="443">
   <si>
     <t xml:space="preserve">Konfiguration Regelung</t>
   </si>
@@ -391,7 +391,13 @@
     <t xml:space="preserve">Warmwassersolltemperatur</t>
   </si>
   <si>
+    <t xml:space="preserve">WP_Warmwassersolltemperatur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Warmwassertemepratur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP_Warmwassertemperatur</t>
   </si>
   <si>
     <t xml:space="preserve">0 = AUS
@@ -399,10 +405,7 @@
 8 = Pumpe</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auskommentiert</t>
+    <t xml:space="preserve">I do not need this value; not yet tested</t>
   </si>
   <si>
     <t xml:space="preserve">Warmwasser Push</t>
@@ -411,18 +414,27 @@
     <t xml:space="preserve">0 = AUS, 5 … 240 MIN</t>
   </si>
   <si>
+    <t xml:space="preserve">seems to be more a writing than a reading value, is 0 for me all the time → correct</t>
+  </si>
+  <si>
     <t xml:space="preserve">Warmwasser Normal</t>
   </si>
   <si>
-    <t xml:space="preserve">siehe unter climates</t>
+    <t xml:space="preserve">Fails I configured it as climates and with holding → maybe this is wrong!</t>
   </si>
   <si>
     <t xml:space="preserve">Warmwasser Absenk</t>
   </si>
   <si>
+    <t xml:space="preserve">WP_WarmwasserAbsenk; value is at 345 all the time → retest!</t>
+  </si>
+  <si>
     <t xml:space="preserve">SG Ready Anhebung</t>
   </si>
   <si>
+    <t xml:space="preserve">WP_WarmwasserSGReady; value is at -32768 all the time….</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ab Version 5.1 R04 korrigiert, zuvor kein Auslesen möglich</t>
   </si>
   <si>
@@ -435,45 +447,93 @@
     <t xml:space="preserve">FormatBetriebsstatusanzeige</t>
   </si>
   <si>
+    <t xml:space="preserve">not used, not required</t>
+  </si>
+  <si>
     <t xml:space="preserve">Störmeldung</t>
   </si>
   <si>
+    <t xml:space="preserve">not used, not required yet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leistungsanforderung</t>
   </si>
   <si>
     <t xml:space="preserve">FormatLeistungswert</t>
   </si>
   <si>
+    <t xml:space="preserve">seems to work, value is between 0% and 25%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rücklauftemperatur</t>
   </si>
   <si>
     <t xml:space="preserve">Verdampfung</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">commented this out value was alwyse at -3276.8  → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">→ means Sensor not available</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Sauggas</t>
   </si>
   <si>
+    <t xml:space="preserve">WP_PumpeSauggas; retest seems to work somehow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weiche</t>
   </si>
   <si>
+    <t xml:space="preserve">commented this out value was alwyse at -3276.8 → means Sensor not available</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regenerativ</t>
   </si>
   <si>
+    <t xml:space="preserve">commented this out value was alwyse at -3276.8  → means Sensor not available</t>
+  </si>
+  <si>
     <t xml:space="preserve">Puffer</t>
   </si>
   <si>
+    <t xml:space="preserve">WP_PumpePuffer; not sure if this works stays all the time at 0.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summenvorlauf (B7)</t>
   </si>
   <si>
     <t xml:space="preserve">FormatSensor (ab V5.1 R04 enthalten)</t>
   </si>
   <si>
+    <t xml:space="preserve">WP_PumpeSummenvorlauf; seems to work – is this value given in min?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Konfiguration </t>
   </si>
   <si>
     <t xml:space="preserve">FormatWaermepumpeKonfiguration</t>
   </si>
   <si>
+    <t xml:space="preserve">not used, not yet required</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ruhemodus</t>
   </si>
   <si>
@@ -501,7 +561,7 @@
     <t xml:space="preserve">43 104</t>
   </si>
   <si>
-    <t xml:space="preserve">scale testen!</t>
+    <t xml:space="preserve">tested but unavailable</t>
   </si>
   <si>
     <t xml:space="preserve">20...100</t>
@@ -513,18 +573,12 @@
     <t xml:space="preserve">43 105</t>
   </si>
   <si>
-    <t xml:space="preserve">20...101</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pumpe Leistung Warmwasser</t>
   </si>
   <si>
     <t xml:space="preserve">43 106</t>
   </si>
   <si>
-    <t xml:space="preserve">20...102</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pumpe Leistung Abtaubetrieb</t>
   </si>
   <si>
@@ -552,6 +606,12 @@
     <t xml:space="preserve">43 110</t>
   </si>
   <si>
+    <t xml:space="preserve">Details on Sauggas 33107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe I missconfigured it but I get this strange output:</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. WEZ</t>
   </si>
   <si>
@@ -567,30 +627,48 @@
     <t xml:space="preserve">FormatBetriebsstunden</t>
   </si>
   <si>
+    <t xml:space="preserve">Alwayse stays at 4 → is this correct?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schaltspiele 2. WEZ</t>
   </si>
   <si>
     <t xml:space="preserve">FormatSchaltspiele</t>
   </si>
   <si>
+    <t xml:space="preserve">Alwayse stays at 0 → is this correct?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status E-Heizung 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Alwayse at 0 is this correct?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status E-Heizung 2</t>
   </si>
   <si>
     <t xml:space="preserve">Betriebsstunden E1</t>
   </si>
   <si>
+    <t xml:space="preserve">Alwayse stays at 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Betriebsstunden E2</t>
   </si>
   <si>
+    <t xml:space="preserve">Alwayse at 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Konfiguration WEZ2</t>
   </si>
   <si>
     <t xml:space="preserve">255 = AUS / 0 = aktiviert</t>
   </si>
   <si>
+    <t xml:space="preserve">not yet tested</t>
+  </si>
+  <si>
     <t xml:space="preserve">Konfiguration EP1</t>
   </si>
   <si>
@@ -724,6 +802,18 @@
   </si>
   <si>
     <t xml:space="preserve">Kühlen Energie Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These values are not in my orginal docu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPST_Elektrisch Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commented cause value alwayse at 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPST_Elektrisch Monat</t>
   </si>
   <si>
     <t xml:space="preserve">Datenformat</t>
@@ -1393,7 +1483,7 @@
     <numFmt numFmtId="165" formatCode="mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="00\ 000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1430,6 +1520,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2079,14 +2175,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2119,19 +2215,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2143,11 +2239,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2171,75 +2267,75 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2247,11 +2343,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2259,11 +2355,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2339,6 +2435,85 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>559080</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5595120"/>
+          <a:ext cx="14685120" cy="1380240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>474840</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7292880"/>
+          <a:ext cx="7828200" cy="5961240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2346,8 +2521,8 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2684,10 +2859,10 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="32.71"/>
@@ -2945,10 +3120,10 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="32.71"/>
@@ -3706,17 +3881,18 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.53"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3929,7 @@
       </c>
       <c r="F2" s="68"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
@@ -3768,12 +3944,15 @@
       </c>
       <c r="E3" s="71" t="s">
         <v>31</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
       <c r="B4" s="72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="72" t="s">
         <v>30</v>
@@ -3784,6 +3963,9 @@
       </c>
       <c r="E4" s="31" t="s">
         <v>31</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,7 +3995,7 @@
       </c>
       <c r="F6" s="68"/>
     </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
         <v>43</v>
       </c>
@@ -3821,7 +4003,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7" s="16" t="n">
         <v>42101</v>
@@ -3829,20 +4011,20 @@
       <c r="E7" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>104</v>
+      <c r="F7" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" s="20" t="n">
         <f aca="false">D7+1</f>
@@ -3851,11 +4033,14 @@
       <c r="E8" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>58</v>
@@ -3867,14 +4052,17 @@
       <c r="E9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C10" s="77" t="s">
         <v>58</v>
@@ -3886,14 +4074,17 @@
       <c r="E10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
       <c r="B11" s="78" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>58</v>
@@ -3905,13 +4096,16 @@
       <c r="E11" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>103</v>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3934,24 +4128,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.97"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
@@ -3982,15 +4178,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D3" s="16" t="n">
         <v>33101</v>
@@ -3998,17 +4194,17 @@
       <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
       <c r="B4" s="80" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>39</v>
@@ -4020,20 +4216,20 @@
       <c r="E4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>104</v>
+      <c r="F4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="80" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D5" s="20" t="n">
         <f aca="false">D4+1</f>
@@ -4041,6 +4237,9 @@
       </c>
       <c r="E5" s="26" t="s">
         <v>31</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,7 +4261,7 @@
     <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="80" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>30</v>
@@ -4075,10 +4274,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="80" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>30</v>
@@ -4090,14 +4289,18 @@
       <c r="E8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>103</v>
+      <c r="F8" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="81"/>
+      <c r="H8" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="80" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>30</v>
@@ -4109,14 +4312,14 @@
       <c r="E9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="80" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C10" s="80" t="s">
         <v>30</v>
@@ -4128,14 +4331,18 @@
       <c r="E10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
       <c r="B11" s="80" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>30</v>
@@ -4147,14 +4354,17 @@
       <c r="E11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>103</v>
+      <c r="F11" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
       <c r="B12" s="80" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>30</v>
@@ -4166,17 +4376,17 @@
       <c r="E12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>103</v>
+      <c r="H12" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
-      <c r="B13" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>125</v>
+      <c r="B13" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>137</v>
       </c>
       <c r="D13" s="30" t="n">
         <f aca="false">D12+1</f>
@@ -4185,8 +4395,8 @@
       <c r="E13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>103</v>
+      <c r="H13" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,10 +4430,10 @@
         <v>43</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D16" s="16" t="n">
         <v>43101</v>
@@ -4231,211 +4441,241 @@
       <c r="E16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>104</v>
+      <c r="F16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
       <c r="B17" s="80" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>104</v>
+      <c r="F17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="80" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>104</v>
+      <c r="F18" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="80" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>103</v>
+      <c r="F19" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
       <c r="B20" s="80" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>104</v>
+      <c r="F20" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>141</v>
+        <v>151</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="80" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>103</v>
+      <c r="F21" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="80" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>103</v>
+      <c r="F22" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="80" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="80" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
-      <c r="B25" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>148</v>
+      <c r="B25" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>160</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
+      <c r="F25" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A13"/>
@@ -4448,6 +4688,7 @@
     <oddHeader/>
     <oddFooter>&amp;CSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4459,20 +4700,22 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.32"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
@@ -4503,13 +4746,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="84"/>
       <c r="B3" s="76" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D3" s="20" t="n">
         <v>34101</v>
@@ -4517,20 +4760,17 @@
       <c r="E3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>104</v>
+      <c r="F3" s="55" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="84"/>
       <c r="B4" s="76" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D4" s="20" t="n">
         <f aca="false">D3+1</f>
@@ -4539,17 +4779,18 @@
       <c r="E4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>103</v>
+      <c r="F4" s="1"/>
+      <c r="H4" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="84"/>
       <c r="B5" s="76" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D5" s="20" t="n">
         <f aca="false">D4+1</f>
@@ -4558,17 +4799,18 @@
       <c r="E5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>103</v>
+      <c r="F5" s="1"/>
+      <c r="H5" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="84"/>
       <c r="B6" s="76" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D6" s="20" t="n">
         <f aca="false">D5+1</f>
@@ -4578,14 +4820,17 @@
         <v>31</v>
       </c>
       <c r="F6" s="1"/>
+      <c r="H6" s="0" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="84"/>
       <c r="B7" s="77" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D7" s="20" t="n">
         <f aca="false">D6+1</f>
@@ -4595,14 +4840,17 @@
         <v>31</v>
       </c>
       <c r="F7" s="1"/>
+      <c r="H7" s="0" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="84"/>
       <c r="B8" s="77" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D8" s="20" t="n">
         <f aca="false">D7+1</f>
@@ -4612,14 +4860,17 @@
         <v>31</v>
       </c>
       <c r="F8" s="1"/>
+      <c r="H8" s="0" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="84"/>
       <c r="B9" s="85" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D9" s="86" t="n">
         <f aca="false">D8+1</f>
@@ -4629,6 +4880,9 @@
         <v>31</v>
       </c>
       <c r="F9" s="1"/>
+      <c r="H9" s="0" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="10" s="44" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -4652,10 +4906,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D11" s="16" t="n">
         <v>44101</v>
@@ -4663,20 +4917,20 @@
       <c r="E11" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>104</v>
+      <c r="F11" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
       <c r="B12" s="76" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D12" s="20" t="n">
         <v>44102</v>
@@ -4684,20 +4938,20 @@
       <c r="E12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>104</v>
+      <c r="F12" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
       <c r="B13" s="76" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20" t="n">
         <v>44103</v>
@@ -4705,20 +4959,20 @@
       <c r="E13" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>104</v>
+      <c r="F13" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
       <c r="B14" s="76" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20" t="n">
         <v>44104</v>
@@ -4726,20 +4980,20 @@
       <c r="E14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>104</v>
+      <c r="F14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
       <c r="B15" s="77" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D15" s="20" t="n">
         <v>44105</v>
@@ -4747,20 +5001,20 @@
       <c r="E15" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>104</v>
+      <c r="F15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="78" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D16" s="30" t="n">
         <v>44106</v>
@@ -4768,11 +5022,11 @@
       <c r="E16" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>104</v>
+      <c r="F16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4798,20 +5052,21 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="2.64"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
@@ -4825,7 +5080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="44" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
         <v>24</v>
       </c>
@@ -4841,16 +5096,17 @@
       <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="88" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D3" s="16" t="n">
         <v>35101</v>
@@ -4858,14 +5114,20 @@
       <c r="E3" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="88"/>
       <c r="B4" s="90" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D4" s="20" t="n">
         <f aca="false">D3+1</f>
@@ -4874,11 +5136,17 @@
       <c r="E4" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="88"/>
       <c r="B5" s="90" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>30</v>
@@ -4890,11 +5158,17 @@
       <c r="E5" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="88"/>
       <c r="B6" s="90" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C6" s="80" t="s">
         <v>30</v>
@@ -4906,11 +5180,17 @@
       <c r="E6" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="88"/>
       <c r="B7" s="91" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>30</v>
@@ -4922,12 +5202,17 @@
       <c r="E7" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="88"/>
       <c r="B8" s="91" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C8" s="92" t="s">
         <v>30</v>
@@ -4939,15 +5224,20 @@
       <c r="E8" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="88"/>
       <c r="B9" s="90" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D9" s="20" t="n">
         <f aca="false">D8+1</f>
@@ -4956,14 +5246,20 @@
       <c r="E9" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="88"/>
       <c r="B10" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>156</v>
+        <v>203</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>170</v>
       </c>
       <c r="D10" s="30" t="n">
         <f aca="false">D9+1</f>
@@ -4972,8 +5268,14 @@
       <c r="E10" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" s="44" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="s">
         <v>24</v>
       </c>
@@ -4989,16 +5291,17 @@
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D12" s="16" t="n">
         <v>45101</v>
@@ -5006,32 +5309,42 @@
       <c r="E12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
       <c r="B13" s="89" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20" t="n">
         <f aca="false">D12+1</f>
         <v>45102</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
       <c r="B14" s="89" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20" t="n">
         <f aca="false">D13+1</f>
@@ -5040,15 +5353,20 @@
       <c r="E14" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
       <c r="B15" s="89" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D15" s="20" t="n">
         <f aca="false">D14+1</f>
@@ -5057,15 +5375,20 @@
       <c r="E15" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="97" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D16" s="93" t="n">
         <f aca="false">D15+1</f>
@@ -5074,15 +5397,20 @@
       <c r="E16" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
       <c r="B17" s="97" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D17" s="93" t="n">
         <f aca="false">D16+1</f>
@@ -5091,15 +5419,20 @@
       <c r="E17" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="89" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D18" s="20" t="n">
         <f aca="false">D17+1</f>
@@ -5108,15 +5441,20 @@
       <c r="E18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="99" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D19" s="30" t="n">
         <f aca="false">D18+1</f>
@@ -5125,7 +5463,12 @@
       <c r="E19" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5147,23 +5490,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.64"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
@@ -5199,10 +5544,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D3" s="16" t="n">
         <v>36101</v>
@@ -5211,13 +5556,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="102"/>
       <c r="B4" s="90" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D4" s="20" t="n">
         <f aca="false">D3+1</f>
@@ -5226,14 +5571,17 @@
       <c r="E4" s="26" t="s">
         <v>31</v>
       </c>
+      <c r="F4" s="55" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="102"/>
       <c r="B5" s="90" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D5" s="20" t="n">
         <f aca="false">D4+1</f>
@@ -5246,10 +5594,10 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="102"/>
       <c r="B6" s="90" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D6" s="20" t="n">
         <f aca="false">D5+1</f>
@@ -5262,10 +5610,10 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="102"/>
       <c r="B7" s="90" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D7" s="20" t="n">
         <v>36201</v>
@@ -5274,13 +5622,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="102"/>
       <c r="B8" s="90" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D8" s="20" t="n">
         <f aca="false">D7+1</f>
@@ -5289,14 +5637,17 @@
       <c r="E8" s="26" t="s">
         <v>31</v>
       </c>
+      <c r="F8" s="55" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="102"/>
       <c r="B9" s="90" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D9" s="20" t="n">
         <f aca="false">D8+1</f>
@@ -5309,10 +5660,10 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="102"/>
       <c r="B10" s="90" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D10" s="20" t="n">
         <f aca="false">D9+1</f>
@@ -5325,10 +5676,10 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="102"/>
       <c r="B11" s="90" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20" t="n">
         <v>36301</v>
@@ -5338,13 +5689,13 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="102"/>
       <c r="B12" s="90" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20" t="n">
         <f aca="false">D11+1</f>
@@ -5353,15 +5704,17 @@
       <c r="E12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="55" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="102"/>
       <c r="B13" s="90" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20" t="n">
         <f aca="false">D12+1</f>
@@ -5375,10 +5728,10 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="102"/>
       <c r="B14" s="90" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20" t="n">
         <f aca="false">D13+1</f>
@@ -5392,10 +5745,10 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="102"/>
       <c r="B15" s="90" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D15" s="20" t="n">
         <v>36401</v>
@@ -5405,13 +5758,13 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="102"/>
       <c r="B16" s="90" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D16" s="20" t="n">
         <f aca="false">D15+1</f>
@@ -5420,15 +5773,17 @@
       <c r="E16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="55" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="102"/>
       <c r="B17" s="90" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D17" s="20" t="n">
         <f aca="false">D16+1</f>
@@ -5442,10 +5797,10 @@
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="103"/>
       <c r="B18" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>196</v>
+        <v>231</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>216</v>
       </c>
       <c r="D18" s="30" t="n">
         <f aca="false">D17+1</f>
@@ -5455,6 +5810,45 @@
         <v>31</v>
       </c>
       <c r="F18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>36701</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>36703</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5474,8 +5868,8 @@
   </sheetPr>
   <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A183" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A192" activeCellId="0" sqref="A192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A193" activeCellId="0" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5491,16 +5885,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="107" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B1" s="108" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C1" s="108" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E1" s="108"/>
       <c r="F1" s="108"/>
@@ -5517,13 +5911,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="E3" s="116"/>
       <c r="F3" s="112"/>
@@ -5535,7 +5929,7 @@
         <v>65535</v>
       </c>
       <c r="D4" s="115" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4" s="112"/>
@@ -5545,13 +5939,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C5" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="118" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="E5" s="111"/>
       <c r="F5" s="112"/>
@@ -5563,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="118" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="E6" s="111"/>
       <c r="F6" s="112"/>
@@ -5572,26 +5966,26 @@
       <c r="A7" s="113"/>
       <c r="B7" s="114"/>
       <c r="C7" s="114" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D7" s="118" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E7" s="111"/>
       <c r="F7" s="112"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="113" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B8" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C8" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="118" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E8" s="111"/>
       <c r="F8" s="112"/>
@@ -5603,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="118" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E9" s="111"/>
       <c r="F9" s="112"/>
@@ -5612,10 +6006,10 @@
       <c r="A10" s="113"/>
       <c r="B10" s="114"/>
       <c r="C10" s="114" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="112"/>
@@ -5625,13 +6019,13 @@
         <v>30</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C11" s="114" t="n">
         <v>-32768</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E11" s="116"/>
       <c r="F11" s="116"/>
@@ -5643,7 +6037,7 @@
         <v>-32767</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E12" s="116"/>
       <c r="F12" s="116"/>
@@ -5655,7 +6049,7 @@
         <v>-32766</v>
       </c>
       <c r="D13" s="115" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="116"/>
@@ -5667,7 +6061,7 @@
         <v>-32758</v>
       </c>
       <c r="D14" s="115" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="E14" s="116"/>
       <c r="F14" s="112"/>
@@ -5679,7 +6073,7 @@
         <v>-32757</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="E15" s="116"/>
       <c r="F15" s="112"/>
@@ -5688,10 +6082,10 @@
       <c r="A16" s="119"/>
       <c r="B16" s="114"/>
       <c r="C16" s="114" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E16" s="116"/>
       <c r="F16" s="112"/>
@@ -5701,13 +6095,13 @@
         <v>63</v>
       </c>
       <c r="B17" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C17" s="114" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="E17" s="116"/>
       <c r="F17" s="112"/>
@@ -5719,7 +6113,7 @@
         <v>65535</v>
       </c>
       <c r="D18" s="115" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="E18" s="116"/>
       <c r="F18" s="112"/>
@@ -5729,13 +6123,13 @@
         <v>58</v>
       </c>
       <c r="B19" s="114" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C19" s="114" t="n">
         <v>-32768</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E19" s="116"/>
       <c r="F19" s="116"/>
@@ -5747,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E20" s="116"/>
       <c r="F20" s="116"/>
@@ -5756,26 +6150,26 @@
       <c r="A21" s="119"/>
       <c r="B21" s="114"/>
       <c r="C21" s="114" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="E21" s="116"/>
       <c r="F21" s="112"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="113" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C22" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="120" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5786,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="120" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,7 +6191,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="120" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="120" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="120" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,7 +6224,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="120" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5841,7 +6235,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="120" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5852,7 +6246,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="120" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5863,7 +6257,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="120" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5874,7 +6268,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="120" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,7 +6279,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="120" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +6290,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="120" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="120" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,7 +6312,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="120" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,7 +6323,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="120" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,7 +6334,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="120" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,7 +6345,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="120" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,7 +6356,7 @@
         <v>17</v>
       </c>
       <c r="D39" s="120" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,7 +6367,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="120" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,7 +6378,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="120" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,7 +6389,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="120" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6006,7 +6400,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="120" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6017,7 +6411,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="120" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6028,7 +6422,7 @@
         <v>23</v>
       </c>
       <c r="D45" s="120" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6039,7 +6433,7 @@
         <v>24</v>
       </c>
       <c r="D46" s="120" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6050,7 +6444,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="120" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,7 +6455,7 @@
         <v>26</v>
       </c>
       <c r="D48" s="120" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,7 +6466,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="120" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,7 +6477,7 @@
         <v>28</v>
       </c>
       <c r="D50" s="120" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,7 +6488,7 @@
         <v>29</v>
       </c>
       <c r="D51" s="120" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6105,7 +6499,7 @@
         <v>30</v>
       </c>
       <c r="D52" s="120" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,7 +6510,7 @@
         <v>31</v>
       </c>
       <c r="D53" s="120" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,7 +6521,7 @@
         <v>32</v>
       </c>
       <c r="D54" s="120" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="D55" s="120" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6149,7 +6543,7 @@
         <v>34</v>
       </c>
       <c r="D56" s="120" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,31 +6554,31 @@
         <v>35</v>
       </c>
       <c r="D57" s="120" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="113"/>
       <c r="B58" s="114"/>
       <c r="C58" s="114" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D58" s="120" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="113" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C59" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D59" s="115" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="115" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6204,7 +6598,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="115" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,7 +6608,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="115" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,7 +6618,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="115" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6234,31 +6628,31 @@
         <v>5</v>
       </c>
       <c r="D64" s="115" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="113"/>
       <c r="B65" s="114"/>
       <c r="C65" s="114" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D65" s="120" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="113" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="B66" s="121" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C66" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D66" s="120" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E66" s="33"/>
       <c r="F66" s="122"/>
@@ -6270,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="120" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="122"/>
@@ -6282,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="120" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="E68" s="33"/>
       <c r="F68" s="122"/>
@@ -6294,23 +6688,23 @@
         <v>3</v>
       </c>
       <c r="D69" s="120" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="122"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="113" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B70" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C70" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D70" s="120" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
@@ -6322,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="120" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
@@ -6334,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="120" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
@@ -6343,26 +6737,26 @@
       <c r="A73" s="113"/>
       <c r="B73" s="114"/>
       <c r="C73" s="114" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="D73" s="120" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="113" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B74" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C74" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D74" s="120" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="E74" s="33"/>
       <c r="F74" s="122"/>
@@ -6374,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="120" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="122"/>
@@ -6386,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="120" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="E76" s="33"/>
       <c r="F76" s="122"/>
@@ -6398,7 +6792,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="120" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="E77" s="33"/>
       <c r="F77" s="122"/>
@@ -6410,7 +6804,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="120" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="E78" s="33"/>
       <c r="F78" s="122"/>
@@ -6419,10 +6813,10 @@
       <c r="A79" s="113"/>
       <c r="B79" s="114"/>
       <c r="C79" s="114" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="D79" s="120" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
@@ -6432,13 +6826,13 @@
         <v>80</v>
       </c>
       <c r="B80" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C80" s="114" t="n">
         <v>1</v>
       </c>
       <c r="D80" s="120" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,7 +6842,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="120" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6459,7 +6853,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="120" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6470,7 +6864,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="120" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6481,7 +6875,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="120" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,7 +6886,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="120" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6503,7 +6897,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="120" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,7 +6908,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="120" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6525,7 +6919,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="120" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6536,7 +6930,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="120" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,7 +6941,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="120" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6558,7 +6952,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="120" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,7 +6963,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="120" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,7 +6974,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="120" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,7 +6985,7 @@
         <v>15</v>
       </c>
       <c r="D94" s="120" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6602,7 +6996,7 @@
         <v>16</v>
       </c>
       <c r="D95" s="120" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6613,7 +7007,7 @@
         <v>17</v>
       </c>
       <c r="D96" s="120" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6624,7 +7018,7 @@
         <v>18</v>
       </c>
       <c r="D97" s="120" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,7 +7029,7 @@
         <v>19</v>
       </c>
       <c r="D98" s="120" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,7 +7040,7 @@
         <v>20</v>
       </c>
       <c r="D99" s="120" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,7 +7051,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="120" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,7 +7062,7 @@
         <v>22</v>
       </c>
       <c r="D101" s="120" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,7 +7073,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="120" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,7 +7084,7 @@
         <v>24</v>
       </c>
       <c r="D103" s="120" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,7 +7095,7 @@
         <v>25</v>
       </c>
       <c r="D104" s="120" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6712,7 +7106,7 @@
         <v>26</v>
       </c>
       <c r="D105" s="120" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,7 +7117,7 @@
         <v>27</v>
       </c>
       <c r="D106" s="120" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6734,7 +7128,7 @@
         <v>28</v>
       </c>
       <c r="D107" s="120" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,7 +7139,7 @@
         <v>29</v>
       </c>
       <c r="D108" s="120" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6756,7 +7150,7 @@
         <v>30</v>
       </c>
       <c r="D109" s="120" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,7 +7161,7 @@
         <v>31</v>
       </c>
       <c r="D110" s="120" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6778,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="D111" s="120" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,7 +7183,7 @@
         <v>33</v>
       </c>
       <c r="D112" s="120" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6800,7 +7194,7 @@
         <v>34</v>
       </c>
       <c r="D113" s="120" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6811,7 +7205,7 @@
         <v>35</v>
       </c>
       <c r="D114" s="120" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,7 +7216,7 @@
         <v>36</v>
       </c>
       <c r="D115" s="120" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,7 +7227,7 @@
         <v>37</v>
       </c>
       <c r="D116" s="120" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,7 +7238,7 @@
         <v>38</v>
       </c>
       <c r="D117" s="120" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6855,7 +7249,7 @@
         <v>39</v>
       </c>
       <c r="D118" s="120" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6866,7 +7260,7 @@
         <v>40</v>
       </c>
       <c r="D119" s="120" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,7 +7271,7 @@
         <v>41</v>
       </c>
       <c r="D120" s="120" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6888,7 +7282,7 @@
         <v>42</v>
       </c>
       <c r="D121" s="120" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,7 +7293,7 @@
         <v>43</v>
       </c>
       <c r="D122" s="120" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6910,7 +7304,7 @@
         <v>44</v>
       </c>
       <c r="D123" s="120" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,7 +7315,7 @@
         <v>45</v>
       </c>
       <c r="D124" s="120" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6932,7 +7326,7 @@
         <v>46</v>
       </c>
       <c r="D125" s="120" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,7 +7337,7 @@
         <v>47</v>
       </c>
       <c r="D126" s="120" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,7 +7347,7 @@
         <v>48</v>
       </c>
       <c r="D127" s="120" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,17 +7357,17 @@
         <v>49</v>
       </c>
       <c r="D128" s="120" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="113"/>
       <c r="B129" s="114"/>
       <c r="C129" s="114" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="D129" s="120" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6981,33 +7375,33 @@
         <v>88</v>
       </c>
       <c r="B130" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C130" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D130" s="120" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="113"/>
       <c r="B131" s="114"/>
       <c r="C131" s="114" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="D131" s="120" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="113"/>
       <c r="B132" s="114"/>
       <c r="C132" s="114" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="D132" s="120" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,13 +7409,13 @@
         <v>91</v>
       </c>
       <c r="B133" s="114" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C133" s="114" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="D133" s="120" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,7 +7425,7 @@
         <v>-32768</v>
       </c>
       <c r="D134" s="120" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,13 +7433,13 @@
         <v>94</v>
       </c>
       <c r="B135" s="114" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C135" s="114" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="D135" s="124" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7053,13 +7447,13 @@
         <v>96</v>
       </c>
       <c r="B136" s="114" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C136" s="114" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="D136" s="124" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,21 +7463,21 @@
         <v>-32768</v>
       </c>
       <c r="D137" s="120" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="113" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B138" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C138" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D138" s="120" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="120" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,45 +7497,45 @@
         <v>8</v>
       </c>
       <c r="D140" s="120" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="113" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B141" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C141" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D141" s="120" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="113"/>
       <c r="B142" s="114"/>
       <c r="C142" s="114" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="D142" s="120" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="115" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B143" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C143" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D143" s="120" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,21 +7545,21 @@
         <v>4</v>
       </c>
       <c r="D144" s="120" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="115" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B145" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C145" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D145" s="120" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="120" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="E146" s="34"/>
     </row>
@@ -7186,7 +7580,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="120" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="E147" s="34"/>
     </row>
@@ -7197,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="120" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="E148" s="34"/>
     </row>
@@ -7208,22 +7602,22 @@
         <v>4</v>
       </c>
       <c r="D149" s="120" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="E149" s="125"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="115" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B150" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C150" s="114" t="n">
         <v>1</v>
       </c>
       <c r="D150" s="120" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="E150" s="125"/>
     </row>
@@ -7234,7 +7628,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="120" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="E151" s="125"/>
     </row>
@@ -7245,67 +7639,67 @@
         <v>4</v>
       </c>
       <c r="D152" s="120" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="E152" s="125"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="126" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B153" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C153" s="114" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="D153" s="115" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="E153" s="34"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="126" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B154" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C154" s="114" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="D154" s="120" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="E154" s="34"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="126" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B155" s="126" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C155" s="114" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D155" s="120" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="E155" s="34"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="113" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B156" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C156" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D156" s="120" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="E156" s="34"/>
     </row>
@@ -7316,22 +7710,22 @@
         <v>255</v>
       </c>
       <c r="D157" s="120" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="E157" s="34"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="113" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B158" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C158" s="114" t="n">
         <v>5</v>
       </c>
       <c r="D158" s="120" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E158" s="34"/>
     </row>
@@ -7342,23 +7736,23 @@
         <v>255</v>
       </c>
       <c r="D159" s="120" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="E159" s="34"/>
       <c r="F159" s="122"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="113" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B160" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C160" s="114" t="n">
         <v>6</v>
       </c>
       <c r="D160" s="120" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E160" s="34"/>
     </row>
@@ -7369,23 +7763,23 @@
         <v>255</v>
       </c>
       <c r="D161" s="120" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="E161" s="34"/>
       <c r="F161" s="122"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="115" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B162" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C162" s="114" t="n">
         <v>0</v>
       </c>
       <c r="D162" s="120" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="E162" s="34"/>
       <c r="F162" s="33"/>
@@ -7398,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="120" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,7 +7803,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="120" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7420,7 +7814,7 @@
         <v>3</v>
       </c>
       <c r="D165" s="120" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,7 +7825,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="120" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,7 +7836,7 @@
         <v>5</v>
       </c>
       <c r="D167" s="120" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,7 +7847,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="120" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7464,7 +7858,7 @@
         <v>7</v>
       </c>
       <c r="D169" s="120" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7475,7 +7869,7 @@
         <v>8</v>
       </c>
       <c r="D170" s="120" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7486,7 +7880,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="120" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7497,7 +7891,7 @@
         <v>10</v>
       </c>
       <c r="D172" s="120" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7508,7 +7902,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="120" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,7 +7913,7 @@
         <v>12</v>
       </c>
       <c r="D174" s="120" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7530,7 +7924,7 @@
         <v>13</v>
       </c>
       <c r="D175" s="120" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7541,7 +7935,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="120" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7552,7 +7946,7 @@
         <v>15</v>
       </c>
       <c r="D177" s="120" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,7 +7957,7 @@
         <v>16</v>
       </c>
       <c r="D178" s="120" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7574,7 +7968,7 @@
         <v>17</v>
       </c>
       <c r="D179" s="120" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7585,7 +7979,7 @@
         <v>18</v>
       </c>
       <c r="D180" s="120" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7596,7 +7990,7 @@
         <v>19</v>
       </c>
       <c r="D181" s="120" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7607,7 +8001,7 @@
         <v>20</v>
       </c>
       <c r="D182" s="120" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7618,7 +8012,7 @@
         <v>21</v>
       </c>
       <c r="D183" s="120" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,7 +8023,7 @@
         <v>22</v>
       </c>
       <c r="D184" s="120" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7640,7 +8034,7 @@
         <v>23</v>
       </c>
       <c r="D185" s="120" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7651,7 +8045,7 @@
         <v>24</v>
       </c>
       <c r="D186" s="120" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7662,7 +8056,7 @@
         <v>25</v>
       </c>
       <c r="D187" s="120" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,7 +8067,7 @@
         <v>26</v>
       </c>
       <c r="D188" s="120" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7684,7 +8078,7 @@
         <v>27</v>
       </c>
       <c r="D189" s="120" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,7 +8089,7 @@
         <v>28</v>
       </c>
       <c r="D190" s="120" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,59 +8099,59 @@
         <v>65535</v>
       </c>
       <c r="D191" s="120" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="126" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B192" s="121" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C192" s="114" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="D192" s="120" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="126" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B193" s="121" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C193" s="114" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="D193" s="120" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="115" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B194" s="114" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C194" s="114" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="D194" s="127" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="115" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B195" s="114"/>
       <c r="C195" s="114"/>
       <c r="D195" s="127" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/heatpump/modbus_wwp.xlsx
+++ b/heatpump/modbus_wwp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Konfiguration" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="444">
   <si>
     <t xml:space="preserve">Konfiguration Regelung</t>
   </si>
@@ -432,12 +432,15 @@
     <t xml:space="preserve">SG Ready Anhebung</t>
   </si>
   <si>
-    <t xml:space="preserve">WP_WarmwasserSGReady; value is at -32768 all the time….</t>
+    <t xml:space="preserve">WP_WarmwasserSGReady; value is at -32768 all the time….   </t>
   </si>
   <si>
     <t xml:space="preserve">Ab Version 5.1 R04 korrigiert, zuvor kein Auslesen möglich</t>
   </si>
   <si>
+    <t xml:space="preserve">42105: is holding how many Kelvin the warm water should be heated above the given warm water temperature if the SG Ready function is active (default 5 Kelvin). </t>
+  </si>
+  <si>
     <t xml:space="preserve">Wärmepumpe</t>
   </si>
   <si>
@@ -471,25 +474,7 @@
     <t xml:space="preserve">Verdampfung</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">commented this out value was alwyse at -3276.8  → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">→ means Sensor not available</t>
-    </r>
+    <t xml:space="preserve">commented this out value was alwyse at -3276.8  → → means Sensor not available</t>
   </si>
   <si>
     <t xml:space="preserve">Sauggas</t>
@@ -609,9 +594,6 @@
     <t xml:space="preserve">Details on Sauggas 33107</t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe I missconfigured it but I get this strange output:</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. WEZ</t>
   </si>
   <si>
@@ -748,6 +730,9 @@
   </si>
   <si>
     <t xml:space="preserve">Konfiguration DE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It depends on your heat pump configuration what the SG Ready 1 and SG Ready 2 inputs are delivering</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik</t>
@@ -1483,7 +1468,7 @@
     <numFmt numFmtId="165" formatCode="mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="00\ 000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1520,12 +1505,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1850,7 +1829,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2175,10 +2154,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2215,151 +2190,151 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2441,18 +2416,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>474480</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPr id="0" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2461,45 +2436,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5595120"/>
-          <a:ext cx="14685120" cy="1380240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="0" y="7292880"/>
-          <a:ext cx="7828200" cy="5961240"/>
+          <a:ext cx="7827840" cy="5960880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2521,8 +2459,8 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2862,7 +2800,7 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="32.71"/>
@@ -3120,10 +3058,10 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="32.71"/>
@@ -3879,13 +3817,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
@@ -4106,6 +4044,11 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4131,10 +4074,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.71"/>
@@ -4147,7 +4090,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
@@ -4183,10 +4126,10 @@
         <v>99</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="16" t="n">
         <v>33101</v>
@@ -4198,13 +4141,13 @@
         <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
       <c r="B4" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>39</v>
@@ -4220,16 +4163,16 @@
         <v>16</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="20" t="n">
         <f aca="false">D4+1</f>
@@ -4239,7 +4182,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,7 +4204,7 @@
     <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="80" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>30</v>
@@ -4277,7 +4220,7 @@
     <row r="8" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
       <c r="B8" s="80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>30</v>
@@ -4292,15 +4235,14 @@
       <c r="F8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="81"/>
       <c r="H8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>30</v>
@@ -4313,13 +4255,13 @@
         <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" s="80" t="s">
         <v>30</v>
@@ -4334,15 +4276,14 @@
       <c r="F10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="81"/>
       <c r="H10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
       <c r="B11" s="80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>30</v>
@@ -4358,13 +4299,13 @@
         <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
       <c r="B12" s="80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>30</v>
@@ -4377,16 +4318,16 @@
         <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
-      <c r="B13" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="81" t="s">
         <v>137</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>138</v>
       </c>
       <c r="D13" s="30" t="n">
         <f aca="false">D12+1</f>
@@ -4396,7 +4337,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,10 +4371,10 @@
         <v>43</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D16" s="16" t="n">
         <v>43101</v>
@@ -4445,19 +4386,19 @@
         <v>16</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
       <c r="B17" s="80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>46</v>
@@ -4466,19 +4407,19 @@
         <v>16</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
       <c r="B18" s="80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>46</v>
@@ -4487,19 +4428,19 @@
         <v>16</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>46</v>
@@ -4511,22 +4452,22 @@
         <v>18</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
       <c r="B20" s="80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>46</v>
@@ -4538,22 +4479,22 @@
         <v>18</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>46</v>
@@ -4565,22 +4506,22 @@
         <v>18</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>46</v>
@@ -4592,22 +4533,22 @@
         <v>18</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>46</v>
@@ -4619,19 +4560,19 @@
         <v>18</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
       <c r="B24" s="80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>46</v>
@@ -4642,14 +4583,14 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
-      <c r="B25" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>160</v>
+      <c r="B25" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>161</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>46</v>
@@ -4661,16 +4602,11 @@
         <v>18</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4703,7 +4639,7 @@
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
@@ -4733,10 +4669,10 @@
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="82" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -4747,7 +4683,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="84"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="76" t="s">
         <v>169</v>
       </c>
@@ -4765,7 +4701,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="84"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="76" t="s">
         <v>171</v>
       </c>
@@ -4785,7 +4721,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="84"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="76" t="s">
         <v>174</v>
       </c>
@@ -4805,7 +4741,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="84"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="76" t="s">
         <v>177</v>
       </c>
@@ -4825,7 +4761,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="84"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="77" t="s">
         <v>179</v>
       </c>
@@ -4845,7 +4781,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="84"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="77" t="s">
         <v>180</v>
       </c>
@@ -4865,18 +4801,18 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="86" t="n">
+      <c r="D9" s="85" t="n">
         <f aca="false">D8+1</f>
         <v>34107</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="86" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1"/>
@@ -4888,10 +4824,10 @@
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="82" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5049,13 +4985,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
@@ -5099,10 +5035,10 @@
       <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -5122,8 +5058,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="88"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="89" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="80" t="s">
@@ -5144,8 +5080,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="88"/>
-      <c r="B5" s="90" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="80" t="s">
@@ -5166,8 +5102,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88"/>
-      <c r="B6" s="90" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="89" t="s">
         <v>199</v>
       </c>
       <c r="C6" s="80" t="s">
@@ -5188,18 +5124,18 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88"/>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="93" t="n">
+      <c r="D7" s="92" t="n">
         <f aca="false">D6+1</f>
         <v>35105</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="93" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="55" t="s">
@@ -5210,18 +5146,18 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="88"/>
-      <c r="B8" s="91" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="93" t="n">
+      <c r="D8" s="92" t="n">
         <f aca="false">D7+1</f>
         <v>35106</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="93" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="55" t="s">
@@ -5232,8 +5168,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="88"/>
-      <c r="B9" s="90" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="89" t="s">
         <v>202</v>
       </c>
       <c r="C9" s="80" t="s">
@@ -5254,11 +5190,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="88"/>
-      <c r="B10" s="95" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="81" t="s">
         <v>170</v>
       </c>
       <c r="D10" s="30" t="n">
@@ -5297,7 +5233,7 @@
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="95" t="s">
         <v>204</v>
       </c>
       <c r="C12" s="79" t="s">
@@ -5318,7 +5254,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="88" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -5340,7 +5276,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="88" t="s">
         <v>208</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -5362,7 +5298,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="88" t="s">
         <v>209</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -5384,17 +5320,17 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="93" t="n">
+      <c r="D16" s="92" t="n">
         <f aca="false">D15+1</f>
         <v>45105</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="93" t="s">
         <v>71</v>
       </c>
       <c r="F16" s="55" t="s">
@@ -5406,17 +5342,17 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="93" t="n">
+      <c r="D17" s="92" t="n">
         <f aca="false">D16+1</f>
         <v>45106</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="93" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="55" t="s">
@@ -5428,7 +5364,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="88" t="s">
         <v>212</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -5450,10 +5386,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="99" t="s">
         <v>205</v>
       </c>
       <c r="D19" s="30" t="n">
@@ -5468,6 +5404,11 @@
       </c>
       <c r="H19" s="0" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5496,7 +5437,7 @@
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="32.71"/>
@@ -5508,7 +5449,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
@@ -5540,14 +5481,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>215</v>
+      <c r="B3" s="95" t="s">
+        <v>216</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="16" t="n">
         <v>36101</v>
@@ -5557,12 +5498,12 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="102"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>217</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>216</v>
       </c>
       <c r="D4" s="20" t="n">
         <f aca="false">D3+1</f>
@@ -5576,12 +5517,12 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="102"/>
-      <c r="B5" s="90" t="s">
-        <v>218</v>
+      <c r="A5" s="101"/>
+      <c r="B5" s="89" t="s">
+        <v>219</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D5" s="20" t="n">
         <f aca="false">D4+1</f>
@@ -5592,12 +5533,12 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="102"/>
-      <c r="B6" s="90" t="s">
-        <v>219</v>
+      <c r="A6" s="101"/>
+      <c r="B6" s="89" t="s">
+        <v>220</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D6" s="20" t="n">
         <f aca="false">D5+1</f>
@@ -5608,12 +5549,12 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="102"/>
-      <c r="B7" s="90" t="s">
-        <v>220</v>
+      <c r="A7" s="101"/>
+      <c r="B7" s="89" t="s">
+        <v>221</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D7" s="20" t="n">
         <v>36201</v>
@@ -5623,12 +5564,12 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="102"/>
-      <c r="B8" s="90" t="s">
-        <v>221</v>
+      <c r="A8" s="101"/>
+      <c r="B8" s="89" t="s">
+        <v>222</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" s="20" t="n">
         <f aca="false">D7+1</f>
@@ -5642,12 +5583,12 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="102"/>
-      <c r="B9" s="90" t="s">
-        <v>222</v>
+      <c r="A9" s="101"/>
+      <c r="B9" s="89" t="s">
+        <v>223</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="20" t="n">
         <f aca="false">D8+1</f>
@@ -5658,12 +5599,12 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="102"/>
-      <c r="B10" s="90" t="s">
-        <v>223</v>
+      <c r="A10" s="101"/>
+      <c r="B10" s="89" t="s">
+        <v>224</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D10" s="20" t="n">
         <f aca="false">D9+1</f>
@@ -5674,12 +5615,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="102"/>
-      <c r="B11" s="90" t="s">
-        <v>224</v>
+      <c r="A11" s="101"/>
+      <c r="B11" s="89" t="s">
+        <v>225</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20" t="n">
         <v>36301</v>
@@ -5690,12 +5631,12 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="102"/>
-      <c r="B12" s="90" t="s">
-        <v>225</v>
+      <c r="A12" s="101"/>
+      <c r="B12" s="89" t="s">
+        <v>226</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20" t="n">
         <f aca="false">D11+1</f>
@@ -5709,12 +5650,12 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="102"/>
-      <c r="B13" s="90" t="s">
-        <v>226</v>
+      <c r="A13" s="101"/>
+      <c r="B13" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20" t="n">
         <f aca="false">D12+1</f>
@@ -5726,12 +5667,12 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="102"/>
-      <c r="B14" s="90" t="s">
-        <v>227</v>
+      <c r="A14" s="101"/>
+      <c r="B14" s="89" t="s">
+        <v>228</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20" t="n">
         <f aca="false">D13+1</f>
@@ -5743,12 +5684,12 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="102"/>
-      <c r="B15" s="90" t="s">
-        <v>228</v>
+      <c r="A15" s="101"/>
+      <c r="B15" s="89" t="s">
+        <v>229</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D15" s="20" t="n">
         <v>36401</v>
@@ -5759,12 +5700,12 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="102"/>
-      <c r="B16" s="90" t="s">
-        <v>229</v>
+      <c r="A16" s="101"/>
+      <c r="B16" s="89" t="s">
+        <v>230</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D16" s="20" t="n">
         <f aca="false">D15+1</f>
@@ -5778,12 +5719,12 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="102"/>
-      <c r="B17" s="90" t="s">
-        <v>230</v>
+      <c r="A17" s="101"/>
+      <c r="B17" s="89" t="s">
+        <v>231</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D17" s="20" t="n">
         <f aca="false">D16+1</f>
@@ -5795,12 +5736,12 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="103"/>
-      <c r="B18" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="82" t="s">
-        <v>216</v>
+      <c r="A18" s="102"/>
+      <c r="B18" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>217</v>
       </c>
       <c r="D18" s="30" t="n">
         <f aca="false">D17+1</f>
@@ -5813,12 +5754,12 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>36701</v>
@@ -5830,12 +5771,12 @@
         <v>16</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>36703</v>
@@ -5847,7 +5788,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5874,2284 +5815,2284 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="104" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="104" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="105" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="106" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="104" width="56.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="104" width="29.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="104" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="103" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="103" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="104" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="105" width="51.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="103" width="56.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="103" width="29.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="103" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="107" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="C1" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="D1" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="110"/>
-      <c r="B2" s="105"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="112"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="104"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="C3" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="112"/>
+      <c r="D3" s="114" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="115"/>
+      <c r="F3" s="111"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="117" t="n">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="116" t="n">
         <v>65535</v>
       </c>
-      <c r="D4" s="115" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="112"/>
+      <c r="D4" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="115"/>
+      <c r="F4" s="111"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="114" t="n">
+      <c r="B5" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="118" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
+      <c r="D5" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114" t="n">
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="118" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="117" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="110"/>
+      <c r="F6" s="111"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="118" t="s">
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
+      <c r="D7" s="117" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="111"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="114" t="n">
+      <c r="B8" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114" t="n">
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="113" t="n">
+        <v>-32768</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="118"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113" t="n">
+        <v>-32767</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="118"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113" t="n">
+        <v>-32766</v>
+      </c>
+      <c r="D13" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="118"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113" t="n">
+        <v>-32758</v>
+      </c>
+      <c r="D14" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="115"/>
+      <c r="F14" s="111"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="118"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113" t="n">
+        <v>-32757</v>
+      </c>
+      <c r="D15" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="115"/>
+      <c r="F15" s="111"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="118"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="115"/>
+      <c r="F16" s="111"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="115"/>
+      <c r="F17" s="111"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113" t="n">
+        <v>65535</v>
+      </c>
+      <c r="D18" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="115"/>
+      <c r="F18" s="111"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="113" t="n">
+        <v>-32768</v>
+      </c>
+      <c r="D19" s="114" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="118"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="118" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="114" t="n">
-        <v>-32768</v>
-      </c>
-      <c r="D11" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="119"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114" t="n">
-        <v>-32767</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="119"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114" t="n">
-        <v>-32766</v>
-      </c>
-      <c r="D13" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="119"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114" t="n">
-        <v>-32758</v>
-      </c>
-      <c r="D14" s="115" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="112"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="119"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114" t="n">
-        <v>-32757</v>
-      </c>
-      <c r="D15" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="112"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="119"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="112"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="115" t="s">
-        <v>259</v>
-      </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="112"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114" t="n">
-        <v>65535</v>
-      </c>
-      <c r="D18" s="115" t="s">
-        <v>260</v>
-      </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="112"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="114" t="n">
-        <v>-32768</v>
-      </c>
-      <c r="D19" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="119"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
+      <c r="D20" s="114" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="119"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="115" t="s">
+      <c r="A21" s="118"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="112"/>
+      <c r="D21" s="114" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="115"/>
+      <c r="F21" s="111"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="114" t="n">
+      <c r="A22" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="120" t="s">
-        <v>247</v>
+      <c r="D22" s="119" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114" t="n">
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113" t="n">
         <f aca="false">C22+1</f>
         <v>1</v>
       </c>
-      <c r="D23" s="120" t="s">
-        <v>264</v>
+      <c r="D23" s="119" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114" t="n">
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113" t="n">
         <f aca="false">C23+1</f>
         <v>2</v>
       </c>
-      <c r="D24" s="120" t="s">
-        <v>265</v>
+      <c r="D24" s="119" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="113"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114" t="n">
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113" t="n">
         <f aca="false">C24+1</f>
         <v>3</v>
       </c>
-      <c r="D25" s="120" t="s">
-        <v>266</v>
+      <c r="D25" s="119" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114" t="n">
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113" t="n">
         <f aca="false">C25+1</f>
         <v>4</v>
       </c>
-      <c r="D26" s="120" t="s">
-        <v>267</v>
+      <c r="D26" s="119" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114" t="n">
+      <c r="A27" s="112"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113" t="n">
         <f aca="false">C26+1</f>
         <v>5</v>
       </c>
-      <c r="D27" s="120" t="s">
-        <v>268</v>
+      <c r="D27" s="119" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114" t="n">
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113" t="n">
         <f aca="false">C27+1</f>
         <v>6</v>
       </c>
-      <c r="D28" s="120" t="s">
-        <v>269</v>
+      <c r="D28" s="119" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114" t="n">
+      <c r="A29" s="112"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113" t="n">
         <f aca="false">C28+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="120" t="s">
-        <v>270</v>
+      <c r="D29" s="119" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="113"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114" t="n">
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113" t="n">
         <f aca="false">C29+1</f>
         <v>8</v>
       </c>
-      <c r="D30" s="120" t="s">
-        <v>271</v>
+      <c r="D30" s="119" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="113"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114" t="n">
+      <c r="A31" s="112"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113" t="n">
         <f aca="false">C30+1</f>
         <v>9</v>
       </c>
-      <c r="D31" s="120" t="s">
-        <v>272</v>
+      <c r="D31" s="119" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="113"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114" t="n">
+      <c r="A32" s="112"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113" t="n">
         <f aca="false">C31+1</f>
         <v>10</v>
       </c>
-      <c r="D32" s="120" t="s">
-        <v>273</v>
+      <c r="D32" s="119" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114" t="n">
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113" t="n">
         <f aca="false">C32+1</f>
         <v>11</v>
       </c>
-      <c r="D33" s="120" t="s">
-        <v>274</v>
+      <c r="D33" s="119" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114" t="n">
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113" t="n">
         <f aca="false">C33+1</f>
         <v>12</v>
       </c>
-      <c r="D34" s="120" t="s">
-        <v>275</v>
+      <c r="D34" s="119" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="113"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114" t="n">
+      <c r="A35" s="112"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113" t="n">
         <f aca="false">C34+1</f>
         <v>13</v>
       </c>
-      <c r="D35" s="120" t="s">
-        <v>276</v>
+      <c r="D35" s="119" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114" t="n">
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113" t="n">
         <f aca="false">C35+1</f>
         <v>14</v>
       </c>
-      <c r="D36" s="120" t="s">
-        <v>277</v>
+      <c r="D36" s="119" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="113"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114" t="n">
+      <c r="A37" s="112"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113" t="n">
         <f aca="false">C36+1</f>
         <v>15</v>
       </c>
-      <c r="D37" s="120" t="s">
-        <v>278</v>
+      <c r="D37" s="119" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="113"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114" t="n">
+      <c r="A38" s="112"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113" t="n">
         <f aca="false">C37+1</f>
         <v>16</v>
       </c>
-      <c r="D38" s="120" t="s">
-        <v>279</v>
+      <c r="D38" s="119" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="113"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114" t="n">
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113" t="n">
         <f aca="false">C38+1</f>
         <v>17</v>
       </c>
-      <c r="D39" s="120" t="s">
-        <v>280</v>
+      <c r="D39" s="119" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="113"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114" t="n">
+      <c r="A40" s="112"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113" t="n">
         <f aca="false">C39+1</f>
         <v>18</v>
       </c>
-      <c r="D40" s="120" t="s">
-        <v>281</v>
+      <c r="D40" s="119" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="113"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114" t="n">
+      <c r="A41" s="112"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113" t="n">
         <f aca="false">C40+1</f>
         <v>19</v>
       </c>
-      <c r="D41" s="120" t="s">
-        <v>282</v>
+      <c r="D41" s="119" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114" t="n">
+      <c r="A42" s="112"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113" t="n">
         <f aca="false">C41+1</f>
         <v>20</v>
       </c>
-      <c r="D42" s="120" t="s">
-        <v>283</v>
+      <c r="D42" s="119" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="113"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114" t="n">
+      <c r="A43" s="112"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113" t="n">
         <f aca="false">C42+1</f>
         <v>21</v>
       </c>
-      <c r="D43" s="120" t="s">
-        <v>284</v>
+      <c r="D43" s="119" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114" t="n">
+      <c r="A44" s="112"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113" t="n">
         <f aca="false">C43+1</f>
         <v>22</v>
       </c>
-      <c r="D44" s="120" t="s">
-        <v>285</v>
+      <c r="D44" s="119" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="113"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114" t="n">
+      <c r="A45" s="112"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113" t="n">
         <f aca="false">C44+1</f>
         <v>23</v>
       </c>
-      <c r="D45" s="120" t="s">
-        <v>286</v>
+      <c r="D45" s="119" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="113"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114" t="n">
+      <c r="A46" s="112"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113" t="n">
         <f aca="false">C45+1</f>
         <v>24</v>
       </c>
-      <c r="D46" s="120" t="s">
-        <v>287</v>
+      <c r="D46" s="119" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114" t="n">
+      <c r="A47" s="112"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113" t="n">
         <f aca="false">C46+1</f>
         <v>25</v>
       </c>
-      <c r="D47" s="120" t="s">
-        <v>288</v>
+      <c r="D47" s="119" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114" t="n">
+      <c r="A48" s="112"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113" t="n">
         <f aca="false">C47+1</f>
         <v>26</v>
       </c>
-      <c r="D48" s="120" t="s">
-        <v>289</v>
+      <c r="D48" s="119" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="113"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114" t="n">
+      <c r="A49" s="112"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113" t="n">
         <f aca="false">C48+1</f>
         <v>27</v>
       </c>
-      <c r="D49" s="120" t="s">
-        <v>290</v>
+      <c r="D49" s="119" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="113"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114" t="n">
+      <c r="A50" s="112"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="113" t="n">
         <f aca="false">C49+1</f>
         <v>28</v>
       </c>
-      <c r="D50" s="120" t="s">
-        <v>291</v>
+      <c r="D50" s="119" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="113"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114" t="n">
+      <c r="A51" s="112"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113" t="n">
         <f aca="false">C50+1</f>
         <v>29</v>
       </c>
-      <c r="D51" s="120" t="s">
-        <v>292</v>
+      <c r="D51" s="119" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="113"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114" t="n">
+      <c r="A52" s="112"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113" t="n">
         <f aca="false">C51+1</f>
         <v>30</v>
       </c>
-      <c r="D52" s="120" t="s">
-        <v>293</v>
+      <c r="D52" s="119" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="113"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114" t="n">
+      <c r="A53" s="112"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113" t="n">
         <f aca="false">C52+1</f>
         <v>31</v>
       </c>
-      <c r="D53" s="120" t="s">
-        <v>294</v>
+      <c r="D53" s="119" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="113"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114" t="n">
+      <c r="A54" s="112"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113" t="n">
         <f aca="false">C53+1</f>
         <v>32</v>
       </c>
-      <c r="D54" s="120" t="s">
-        <v>295</v>
+      <c r="D54" s="119" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="113"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114" t="n">
+      <c r="A55" s="112"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113" t="n">
         <f aca="false">C54+1</f>
         <v>33</v>
       </c>
-      <c r="D55" s="120" t="s">
-        <v>296</v>
+      <c r="D55" s="119" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="113"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114" t="n">
+      <c r="A56" s="112"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="113" t="n">
         <f aca="false">C55+1</f>
         <v>34</v>
       </c>
-      <c r="D56" s="120" t="s">
-        <v>297</v>
+      <c r="D56" s="119" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="113"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114" t="n">
+      <c r="A57" s="112"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="113" t="n">
         <f aca="false">C56+1</f>
         <v>35</v>
       </c>
-      <c r="D57" s="120" t="s">
-        <v>298</v>
+      <c r="D57" s="119" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="113"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114" t="s">
-        <v>299</v>
-      </c>
-      <c r="D58" s="120" t="s">
-        <v>247</v>
+      <c r="A58" s="112"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="D58" s="119" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="113" t="s">
-        <v>300</v>
-      </c>
-      <c r="B59" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C59" s="114" t="n">
+      <c r="A59" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D59" s="115" t="s">
-        <v>301</v>
+      <c r="D59" s="114" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="113"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114" t="n">
+      <c r="A60" s="112"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D60" s="115" t="s">
-        <v>302</v>
+      <c r="D60" s="114" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="113"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114" t="n">
+      <c r="A61" s="112"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="D61" s="115" t="s">
-        <v>303</v>
+      <c r="D61" s="114" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="113"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114" t="n">
+      <c r="A62" s="112"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="D62" s="115" t="s">
-        <v>304</v>
+      <c r="D62" s="114" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="113"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114" t="n">
+      <c r="A63" s="112"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="D63" s="115" t="s">
-        <v>305</v>
+      <c r="D63" s="114" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="113"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114" t="n">
+      <c r="A64" s="112"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="113" t="n">
         <v>5</v>
       </c>
-      <c r="D64" s="115" t="s">
+      <c r="D64" s="114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="113"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114" t="s">
-        <v>306</v>
-      </c>
-      <c r="D65" s="120" t="s">
-        <v>247</v>
+      <c r="A65" s="112"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="119" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="113" t="s">
-        <v>307</v>
-      </c>
-      <c r="B66" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="C66" s="114" t="n">
+      <c r="A66" s="112" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="120" t="s">
-        <v>248</v>
+      <c r="D66" s="119" t="s">
+        <v>249</v>
       </c>
       <c r="E66" s="33"/>
-      <c r="F66" s="122"/>
+      <c r="F66" s="121"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="113"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="114" t="n">
+      <c r="A67" s="112"/>
+      <c r="B67" s="120"/>
+      <c r="C67" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="120" t="s">
-        <v>308</v>
+      <c r="D67" s="119" t="s">
+        <v>309</v>
       </c>
       <c r="E67" s="33"/>
-      <c r="F67" s="122"/>
+      <c r="F67" s="121"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="113"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="114" t="n">
+      <c r="A68" s="112"/>
+      <c r="B68" s="120"/>
+      <c r="C68" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="120" t="s">
-        <v>309</v>
+      <c r="D68" s="119" t="s">
+        <v>310</v>
       </c>
       <c r="E68" s="33"/>
-      <c r="F68" s="122"/>
+      <c r="F68" s="121"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="113"/>
-      <c r="B69" s="121"/>
-      <c r="C69" s="114" t="n">
+      <c r="A69" s="112"/>
+      <c r="B69" s="120"/>
+      <c r="C69" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="D69" s="120" t="s">
-        <v>310</v>
+      <c r="D69" s="119" t="s">
+        <v>311</v>
       </c>
       <c r="E69" s="33"/>
-      <c r="F69" s="122"/>
+      <c r="F69" s="121"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="113" t="s">
-        <v>311</v>
-      </c>
-      <c r="B70" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C70" s="114" t="n">
+      <c r="A70" s="112" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="120" t="s">
-        <v>248</v>
+      <c r="D70" s="119" t="s">
+        <v>249</v>
       </c>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="113"/>
-      <c r="B71" s="114"/>
-      <c r="C71" s="114" t="n">
+      <c r="A71" s="112"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D71" s="120" t="s">
-        <v>312</v>
+      <c r="D71" s="119" t="s">
+        <v>313</v>
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="113"/>
-      <c r="B72" s="114"/>
-      <c r="C72" s="114" t="n">
+      <c r="A72" s="112"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="D72" s="120" t="s">
-        <v>313</v>
+      <c r="D72" s="119" t="s">
+        <v>314</v>
       </c>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="113"/>
-      <c r="B73" s="114"/>
-      <c r="C73" s="114" t="s">
-        <v>314</v>
-      </c>
-      <c r="D73" s="120" t="s">
-        <v>247</v>
+      <c r="A73" s="112"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="113" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="119" t="s">
+        <v>248</v>
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="113" t="s">
-        <v>315</v>
-      </c>
-      <c r="B74" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C74" s="114" t="n">
+      <c r="A74" s="112" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="120" t="s">
-        <v>316</v>
+      <c r="D74" s="119" t="s">
+        <v>317</v>
       </c>
       <c r="E74" s="33"/>
-      <c r="F74" s="122"/>
+      <c r="F74" s="121"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="113"/>
-      <c r="B75" s="114"/>
-      <c r="C75" s="114" t="n">
+      <c r="A75" s="112"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D75" s="120" t="s">
-        <v>317</v>
+      <c r="D75" s="119" t="s">
+        <v>318</v>
       </c>
       <c r="E75" s="33"/>
-      <c r="F75" s="122"/>
+      <c r="F75" s="121"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="113"/>
-      <c r="B76" s="114"/>
-      <c r="C76" s="114" t="n">
+      <c r="A76" s="112"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="D76" s="120" t="s">
-        <v>318</v>
+      <c r="D76" s="119" t="s">
+        <v>319</v>
       </c>
       <c r="E76" s="33"/>
-      <c r="F76" s="122"/>
+      <c r="F76" s="121"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="113"/>
-      <c r="B77" s="114"/>
-      <c r="C77" s="114" t="n">
+      <c r="A77" s="112"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="D77" s="120" t="s">
-        <v>319</v>
+      <c r="D77" s="119" t="s">
+        <v>320</v>
       </c>
       <c r="E77" s="33"/>
-      <c r="F77" s="122"/>
+      <c r="F77" s="121"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="113"/>
-      <c r="B78" s="114"/>
-      <c r="C78" s="114" t="n">
+      <c r="A78" s="112"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="D78" s="120" t="s">
-        <v>305</v>
+      <c r="D78" s="119" t="s">
+        <v>306</v>
       </c>
       <c r="E78" s="33"/>
-      <c r="F78" s="122"/>
+      <c r="F78" s="121"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="113"/>
-      <c r="B79" s="114"/>
-      <c r="C79" s="114" t="s">
-        <v>320</v>
-      </c>
-      <c r="D79" s="120" t="s">
-        <v>247</v>
+      <c r="A79" s="112"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="113" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="119" t="s">
+        <v>248</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="113" t="s">
+      <c r="A80" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" s="114" t="n">
+      <c r="B80" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D80" s="120" t="s">
-        <v>321</v>
+      <c r="D80" s="119" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="113"/>
-      <c r="B81" s="114"/>
-      <c r="C81" s="114" t="n">
+      <c r="A81" s="112"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="120" t="s">
-        <v>322</v>
+      <c r="D81" s="119" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="113"/>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114" t="n">
+      <c r="A82" s="112"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113" t="n">
         <f aca="false">C81+1</f>
         <v>3</v>
       </c>
-      <c r="D82" s="120" t="s">
-        <v>323</v>
+      <c r="D82" s="119" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="113"/>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114" t="n">
+      <c r="A83" s="112"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="113" t="n">
         <f aca="false">C82+1</f>
         <v>4</v>
       </c>
-      <c r="D83" s="120" t="s">
-        <v>324</v>
+      <c r="D83" s="119" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="113"/>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114" t="n">
+      <c r="A84" s="112"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="113" t="n">
         <f aca="false">C83+1</f>
         <v>5</v>
       </c>
-      <c r="D84" s="120" t="s">
-        <v>325</v>
+      <c r="D84" s="119" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="113"/>
-      <c r="B85" s="114"/>
-      <c r="C85" s="114" t="n">
+      <c r="A85" s="112"/>
+      <c r="B85" s="113"/>
+      <c r="C85" s="113" t="n">
         <f aca="false">C84+1</f>
         <v>6</v>
       </c>
-      <c r="D85" s="120" t="s">
-        <v>326</v>
+      <c r="D85" s="119" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="113"/>
-      <c r="B86" s="114"/>
-      <c r="C86" s="114" t="n">
+      <c r="A86" s="112"/>
+      <c r="B86" s="113"/>
+      <c r="C86" s="113" t="n">
         <f aca="false">C85+1</f>
         <v>7</v>
       </c>
-      <c r="D86" s="120" t="s">
-        <v>327</v>
+      <c r="D86" s="119" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="113"/>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114" t="n">
+      <c r="A87" s="112"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="113" t="n">
         <f aca="false">C86+1</f>
         <v>8</v>
       </c>
-      <c r="D87" s="120" t="s">
-        <v>328</v>
+      <c r="D87" s="119" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="113"/>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114" t="n">
+      <c r="A88" s="112"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="113" t="n">
         <f aca="false">C87+1</f>
         <v>9</v>
       </c>
-      <c r="D88" s="120" t="s">
-        <v>329</v>
+      <c r="D88" s="119" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="113"/>
-      <c r="B89" s="114"/>
-      <c r="C89" s="114" t="n">
+      <c r="A89" s="112"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="113" t="n">
         <f aca="false">C88+1</f>
         <v>10</v>
       </c>
-      <c r="D89" s="120" t="s">
-        <v>330</v>
+      <c r="D89" s="119" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="113"/>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114" t="n">
+      <c r="A90" s="112"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="113" t="n">
         <f aca="false">C89+1</f>
         <v>11</v>
       </c>
-      <c r="D90" s="120" t="s">
-        <v>331</v>
+      <c r="D90" s="119" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="113"/>
-      <c r="B91" s="114"/>
-      <c r="C91" s="114" t="n">
+      <c r="A91" s="112"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113" t="n">
         <f aca="false">C90+1</f>
         <v>12</v>
       </c>
-      <c r="D91" s="120" t="s">
-        <v>332</v>
+      <c r="D91" s="119" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="113"/>
-      <c r="B92" s="114"/>
-      <c r="C92" s="114" t="n">
+      <c r="A92" s="112"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="113" t="n">
         <f aca="false">C91+1</f>
         <v>13</v>
       </c>
-      <c r="D92" s="120" t="s">
-        <v>333</v>
+      <c r="D92" s="119" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="113"/>
-      <c r="B93" s="114"/>
-      <c r="C93" s="114" t="n">
+      <c r="A93" s="112"/>
+      <c r="B93" s="113"/>
+      <c r="C93" s="113" t="n">
         <f aca="false">C92+1</f>
         <v>14</v>
       </c>
-      <c r="D93" s="120" t="s">
-        <v>334</v>
+      <c r="D93" s="119" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="113"/>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114" t="n">
+      <c r="A94" s="112"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="113" t="n">
         <f aca="false">C93+1</f>
         <v>15</v>
       </c>
-      <c r="D94" s="120" t="s">
-        <v>335</v>
+      <c r="D94" s="119" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="113"/>
-      <c r="B95" s="114"/>
-      <c r="C95" s="114" t="n">
+      <c r="A95" s="112"/>
+      <c r="B95" s="113"/>
+      <c r="C95" s="113" t="n">
         <f aca="false">C94+1</f>
         <v>16</v>
       </c>
-      <c r="D95" s="120" t="s">
-        <v>336</v>
+      <c r="D95" s="119" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="113"/>
-      <c r="B96" s="114"/>
-      <c r="C96" s="114" t="n">
+      <c r="A96" s="112"/>
+      <c r="B96" s="113"/>
+      <c r="C96" s="113" t="n">
         <f aca="false">C95+1</f>
         <v>17</v>
       </c>
-      <c r="D96" s="120" t="s">
-        <v>337</v>
+      <c r="D96" s="119" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="113"/>
-      <c r="B97" s="114"/>
-      <c r="C97" s="114" t="n">
+      <c r="A97" s="112"/>
+      <c r="B97" s="113"/>
+      <c r="C97" s="113" t="n">
         <f aca="false">C96+1</f>
         <v>18</v>
       </c>
-      <c r="D97" s="120" t="s">
-        <v>338</v>
+      <c r="D97" s="119" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="113"/>
-      <c r="B98" s="114"/>
-      <c r="C98" s="114" t="n">
+      <c r="A98" s="112"/>
+      <c r="B98" s="113"/>
+      <c r="C98" s="113" t="n">
         <f aca="false">C97+1</f>
         <v>19</v>
       </c>
-      <c r="D98" s="120" t="s">
-        <v>339</v>
+      <c r="D98" s="119" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="113"/>
-      <c r="B99" s="114"/>
-      <c r="C99" s="114" t="n">
+      <c r="A99" s="112"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="113" t="n">
         <f aca="false">C98+1</f>
         <v>20</v>
       </c>
-      <c r="D99" s="120" t="s">
-        <v>340</v>
+      <c r="D99" s="119" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="113"/>
-      <c r="B100" s="114"/>
-      <c r="C100" s="114" t="n">
+      <c r="A100" s="112"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="113" t="n">
         <f aca="false">C99+1</f>
         <v>21</v>
       </c>
-      <c r="D100" s="120" t="s">
-        <v>341</v>
+      <c r="D100" s="119" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="113"/>
-      <c r="B101" s="114"/>
-      <c r="C101" s="114" t="n">
+      <c r="A101" s="112"/>
+      <c r="B101" s="113"/>
+      <c r="C101" s="113" t="n">
         <f aca="false">C100+1</f>
         <v>22</v>
       </c>
-      <c r="D101" s="120" t="s">
-        <v>342</v>
+      <c r="D101" s="119" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="113"/>
-      <c r="B102" s="114"/>
-      <c r="C102" s="114" t="n">
+      <c r="A102" s="112"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113" t="n">
         <f aca="false">C101+1</f>
         <v>23</v>
       </c>
-      <c r="D102" s="120" t="s">
-        <v>343</v>
+      <c r="D102" s="119" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="113"/>
-      <c r="B103" s="114"/>
-      <c r="C103" s="114" t="n">
+      <c r="A103" s="112"/>
+      <c r="B103" s="113"/>
+      <c r="C103" s="113" t="n">
         <f aca="false">C102+1</f>
         <v>24</v>
       </c>
-      <c r="D103" s="120" t="s">
-        <v>344</v>
+      <c r="D103" s="119" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="113"/>
-      <c r="B104" s="114"/>
-      <c r="C104" s="114" t="n">
+      <c r="A104" s="112"/>
+      <c r="B104" s="113"/>
+      <c r="C104" s="113" t="n">
         <f aca="false">C103+1</f>
         <v>25</v>
       </c>
-      <c r="D104" s="120" t="s">
-        <v>345</v>
+      <c r="D104" s="119" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="113"/>
-      <c r="B105" s="114"/>
-      <c r="C105" s="114" t="n">
+      <c r="A105" s="112"/>
+      <c r="B105" s="113"/>
+      <c r="C105" s="113" t="n">
         <f aca="false">C104+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="120" t="s">
-        <v>346</v>
+      <c r="D105" s="119" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="113"/>
-      <c r="B106" s="114"/>
-      <c r="C106" s="114" t="n">
+      <c r="A106" s="112"/>
+      <c r="B106" s="113"/>
+      <c r="C106" s="113" t="n">
         <f aca="false">C105+1</f>
         <v>27</v>
       </c>
-      <c r="D106" s="120" t="s">
-        <v>347</v>
+      <c r="D106" s="119" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="113"/>
-      <c r="B107" s="114"/>
-      <c r="C107" s="114" t="n">
+      <c r="A107" s="112"/>
+      <c r="B107" s="113"/>
+      <c r="C107" s="113" t="n">
         <f aca="false">C106+1</f>
         <v>28</v>
       </c>
-      <c r="D107" s="120" t="s">
-        <v>348</v>
+      <c r="D107" s="119" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="113"/>
-      <c r="B108" s="114"/>
-      <c r="C108" s="114" t="n">
+      <c r="A108" s="112"/>
+      <c r="B108" s="113"/>
+      <c r="C108" s="113" t="n">
         <f aca="false">C107+1</f>
         <v>29</v>
       </c>
-      <c r="D108" s="120" t="s">
-        <v>349</v>
+      <c r="D108" s="119" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="113"/>
-      <c r="B109" s="114"/>
-      <c r="C109" s="114" t="n">
+      <c r="A109" s="112"/>
+      <c r="B109" s="113"/>
+      <c r="C109" s="113" t="n">
         <f aca="false">C108+1</f>
         <v>30</v>
       </c>
-      <c r="D109" s="120" t="s">
-        <v>350</v>
+      <c r="D109" s="119" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="113"/>
-      <c r="B110" s="114"/>
-      <c r="C110" s="114" t="n">
+      <c r="A110" s="112"/>
+      <c r="B110" s="113"/>
+      <c r="C110" s="113" t="n">
         <f aca="false">C109+1</f>
         <v>31</v>
       </c>
-      <c r="D110" s="120" t="s">
-        <v>351</v>
+      <c r="D110" s="119" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="113"/>
-      <c r="B111" s="114"/>
-      <c r="C111" s="114" t="n">
+      <c r="A111" s="112"/>
+      <c r="B111" s="113"/>
+      <c r="C111" s="113" t="n">
         <f aca="false">C110+1</f>
         <v>32</v>
       </c>
-      <c r="D111" s="120" t="s">
-        <v>352</v>
+      <c r="D111" s="119" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="113"/>
-      <c r="B112" s="114"/>
-      <c r="C112" s="114" t="n">
+      <c r="A112" s="112"/>
+      <c r="B112" s="113"/>
+      <c r="C112" s="113" t="n">
         <f aca="false">C111+1</f>
         <v>33</v>
       </c>
-      <c r="D112" s="120" t="s">
-        <v>353</v>
+      <c r="D112" s="119" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="113"/>
-      <c r="B113" s="114"/>
-      <c r="C113" s="114" t="n">
+      <c r="A113" s="112"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113" t="n">
         <f aca="false">C112+1</f>
         <v>34</v>
       </c>
-      <c r="D113" s="120" t="s">
-        <v>354</v>
+      <c r="D113" s="119" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="113"/>
-      <c r="B114" s="114"/>
-      <c r="C114" s="114" t="n">
+      <c r="A114" s="112"/>
+      <c r="B114" s="113"/>
+      <c r="C114" s="113" t="n">
         <f aca="false">C113+1</f>
         <v>35</v>
       </c>
-      <c r="D114" s="120" t="s">
-        <v>355</v>
+      <c r="D114" s="119" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="113"/>
-      <c r="B115" s="114"/>
-      <c r="C115" s="114" t="n">
+      <c r="A115" s="112"/>
+      <c r="B115" s="113"/>
+      <c r="C115" s="113" t="n">
         <f aca="false">C114+1</f>
         <v>36</v>
       </c>
-      <c r="D115" s="120" t="s">
-        <v>356</v>
+      <c r="D115" s="119" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="113"/>
-      <c r="B116" s="114"/>
-      <c r="C116" s="114" t="n">
+      <c r="A116" s="112"/>
+      <c r="B116" s="113"/>
+      <c r="C116" s="113" t="n">
         <f aca="false">C115+1</f>
         <v>37</v>
       </c>
-      <c r="D116" s="120" t="s">
-        <v>357</v>
+      <c r="D116" s="119" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="113"/>
-      <c r="B117" s="114"/>
-      <c r="C117" s="114" t="n">
+      <c r="A117" s="112"/>
+      <c r="B117" s="113"/>
+      <c r="C117" s="113" t="n">
         <f aca="false">C116+1</f>
         <v>38</v>
       </c>
-      <c r="D117" s="120" t="s">
-        <v>358</v>
+      <c r="D117" s="119" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="113"/>
-      <c r="B118" s="114"/>
-      <c r="C118" s="114" t="n">
+      <c r="A118" s="112"/>
+      <c r="B118" s="113"/>
+      <c r="C118" s="113" t="n">
         <f aca="false">C117+1</f>
         <v>39</v>
       </c>
-      <c r="D118" s="120" t="s">
-        <v>359</v>
+      <c r="D118" s="119" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="113"/>
-      <c r="B119" s="114"/>
-      <c r="C119" s="114" t="n">
+      <c r="A119" s="112"/>
+      <c r="B119" s="113"/>
+      <c r="C119" s="113" t="n">
         <f aca="false">C118+1</f>
         <v>40</v>
       </c>
-      <c r="D119" s="120" t="s">
-        <v>360</v>
+      <c r="D119" s="119" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="113"/>
-      <c r="B120" s="114"/>
-      <c r="C120" s="114" t="n">
+      <c r="A120" s="112"/>
+      <c r="B120" s="113"/>
+      <c r="C120" s="113" t="n">
         <f aca="false">C119+1</f>
         <v>41</v>
       </c>
-      <c r="D120" s="120" t="s">
-        <v>361</v>
+      <c r="D120" s="119" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="113"/>
-      <c r="B121" s="114"/>
-      <c r="C121" s="114" t="n">
+      <c r="A121" s="112"/>
+      <c r="B121" s="113"/>
+      <c r="C121" s="113" t="n">
         <f aca="false">C120+1</f>
         <v>42</v>
       </c>
-      <c r="D121" s="120" t="s">
-        <v>362</v>
+      <c r="D121" s="119" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="113"/>
-      <c r="B122" s="114"/>
-      <c r="C122" s="114" t="n">
+      <c r="A122" s="112"/>
+      <c r="B122" s="113"/>
+      <c r="C122" s="113" t="n">
         <f aca="false">C121+1</f>
         <v>43</v>
       </c>
-      <c r="D122" s="120" t="s">
-        <v>363</v>
+      <c r="D122" s="119" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="113"/>
-      <c r="B123" s="114"/>
-      <c r="C123" s="114" t="n">
+      <c r="A123" s="112"/>
+      <c r="B123" s="113"/>
+      <c r="C123" s="113" t="n">
         <f aca="false">C122+1</f>
         <v>44</v>
       </c>
-      <c r="D123" s="120" t="s">
-        <v>364</v>
+      <c r="D123" s="119" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="113"/>
-      <c r="B124" s="114"/>
-      <c r="C124" s="114" t="n">
+      <c r="A124" s="112"/>
+      <c r="B124" s="113"/>
+      <c r="C124" s="113" t="n">
         <f aca="false">C123+1</f>
         <v>45</v>
       </c>
-      <c r="D124" s="120" t="s">
-        <v>365</v>
+      <c r="D124" s="119" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="113"/>
-      <c r="B125" s="114"/>
-      <c r="C125" s="114" t="n">
+      <c r="A125" s="112"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113" t="n">
         <f aca="false">C124+1</f>
         <v>46</v>
       </c>
-      <c r="D125" s="120" t="s">
-        <v>366</v>
+      <c r="D125" s="119" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="113"/>
-      <c r="B126" s="114"/>
-      <c r="C126" s="114" t="n">
+      <c r="A126" s="112"/>
+      <c r="B126" s="113"/>
+      <c r="C126" s="113" t="n">
         <f aca="false">C125+1</f>
         <v>47</v>
       </c>
-      <c r="D126" s="120" t="s">
-        <v>367</v>
+      <c r="D126" s="119" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="113"/>
-      <c r="B127" s="114"/>
-      <c r="C127" s="114" t="n">
+      <c r="A127" s="112"/>
+      <c r="B127" s="113"/>
+      <c r="C127" s="113" t="n">
         <v>48</v>
       </c>
-      <c r="D127" s="120" t="s">
-        <v>368</v>
+      <c r="D127" s="119" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="113"/>
-      <c r="B128" s="114"/>
-      <c r="C128" s="114" t="n">
+      <c r="A128" s="112"/>
+      <c r="B128" s="113"/>
+      <c r="C128" s="113" t="n">
         <v>49</v>
       </c>
-      <c r="D128" s="120" t="s">
-        <v>369</v>
+      <c r="D128" s="119" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="113"/>
-      <c r="B129" s="114"/>
-      <c r="C129" s="114" t="s">
-        <v>370</v>
-      </c>
-      <c r="D129" s="120" t="s">
-        <v>247</v>
+      <c r="A129" s="112"/>
+      <c r="B129" s="113"/>
+      <c r="C129" s="113" t="s">
+        <v>371</v>
+      </c>
+      <c r="D129" s="119" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="113" t="s">
+      <c r="A130" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B130" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C130" s="114" t="n">
+      <c r="B130" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D130" s="120" t="s">
-        <v>371</v>
+      <c r="D130" s="119" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="113"/>
-      <c r="B131" s="114"/>
-      <c r="C131" s="114" t="s">
-        <v>372</v>
-      </c>
-      <c r="D131" s="120" t="s">
+      <c r="A131" s="112"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113" t="s">
         <v>373</v>
       </c>
+      <c r="D131" s="119" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="113"/>
-      <c r="B132" s="114"/>
-      <c r="C132" s="114" t="s">
-        <v>374</v>
-      </c>
-      <c r="D132" s="120" t="s">
-        <v>247</v>
+      <c r="A132" s="112"/>
+      <c r="B132" s="113"/>
+      <c r="C132" s="113" t="s">
+        <v>375</v>
+      </c>
+      <c r="D132" s="119" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="113" t="s">
+      <c r="A133" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="B133" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="C133" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="D133" s="120" t="s">
+      <c r="B133" s="113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C133" s="113" t="s">
         <v>376</v>
       </c>
+      <c r="D133" s="119" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="113"/>
-      <c r="B134" s="114"/>
-      <c r="C134" s="114" t="n">
+      <c r="A134" s="112"/>
+      <c r="B134" s="113"/>
+      <c r="C134" s="113" t="n">
         <v>-32768</v>
       </c>
-      <c r="D134" s="120" t="s">
-        <v>377</v>
+      <c r="D134" s="119" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="123" t="s">
+      <c r="A135" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="B135" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="C135" s="114" t="s">
-        <v>378</v>
-      </c>
-      <c r="D135" s="124" t="s">
+      <c r="B135" s="113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="113" t="s">
         <v>379</v>
       </c>
+      <c r="D135" s="123" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="113" t="s">
+      <c r="A136" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="B136" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="C136" s="114" t="s">
-        <v>380</v>
-      </c>
-      <c r="D136" s="124" t="s">
+      <c r="B136" s="113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C136" s="113" t="s">
         <v>381</v>
       </c>
+      <c r="D136" s="123" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="113"/>
-      <c r="B137" s="114"/>
-      <c r="C137" s="114" t="n">
+      <c r="A137" s="112"/>
+      <c r="B137" s="113"/>
+      <c r="C137" s="113" t="n">
         <v>-32768</v>
       </c>
-      <c r="D137" s="120" t="s">
-        <v>382</v>
+      <c r="D137" s="119" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="113" t="s">
-        <v>383</v>
-      </c>
-      <c r="B138" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C138" s="114" t="n">
+      <c r="A138" s="112" t="s">
+        <v>384</v>
+      </c>
+      <c r="B138" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C138" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D138" s="120" t="s">
-        <v>248</v>
+      <c r="D138" s="119" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="113"/>
-      <c r="B139" s="114"/>
-      <c r="C139" s="114" t="n">
+      <c r="A139" s="112"/>
+      <c r="B139" s="113"/>
+      <c r="C139" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D139" s="120" t="s">
-        <v>384</v>
+      <c r="D139" s="119" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="113"/>
-      <c r="B140" s="114"/>
-      <c r="C140" s="114" t="n">
+      <c r="A140" s="112"/>
+      <c r="B140" s="113"/>
+      <c r="C140" s="113" t="n">
         <v>8</v>
       </c>
-      <c r="D140" s="120" t="s">
-        <v>385</v>
+      <c r="D140" s="119" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="113" t="s">
-        <v>386</v>
-      </c>
-      <c r="B141" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C141" s="114" t="n">
+      <c r="A141" s="112" t="s">
+        <v>387</v>
+      </c>
+      <c r="B141" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C141" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D141" s="120" t="s">
-        <v>387</v>
+      <c r="D141" s="119" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="113"/>
-      <c r="B142" s="114"/>
-      <c r="C142" s="114" t="s">
-        <v>388</v>
-      </c>
-      <c r="D142" s="120" t="s">
+      <c r="A142" s="112"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113" t="s">
         <v>389</v>
       </c>
+      <c r="D142" s="119" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="115" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C143" s="114" t="n">
+      <c r="A143" s="114" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C143" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D143" s="120" t="s">
-        <v>390</v>
+      <c r="D143" s="119" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="115"/>
-      <c r="B144" s="114"/>
-      <c r="C144" s="114" t="n">
+      <c r="A144" s="114"/>
+      <c r="B144" s="113"/>
+      <c r="C144" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="D144" s="120" t="s">
-        <v>391</v>
+      <c r="D144" s="119" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C145" s="114" t="n">
+      <c r="A145" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D145" s="120" t="s">
-        <v>248</v>
+      <c r="D145" s="119" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="115"/>
-      <c r="B146" s="114"/>
-      <c r="C146" s="114" t="n">
+      <c r="A146" s="114"/>
+      <c r="B146" s="113"/>
+      <c r="C146" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D146" s="120" t="s">
-        <v>392</v>
+      <c r="D146" s="119" t="s">
+        <v>393</v>
       </c>
       <c r="E146" s="34"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="115"/>
-      <c r="B147" s="114"/>
-      <c r="C147" s="114" t="n">
+      <c r="A147" s="114"/>
+      <c r="B147" s="113"/>
+      <c r="C147" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="D147" s="120" t="s">
-        <v>393</v>
+      <c r="D147" s="119" t="s">
+        <v>394</v>
       </c>
       <c r="E147" s="34"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="115"/>
-      <c r="B148" s="114"/>
-      <c r="C148" s="114" t="n">
+      <c r="A148" s="114"/>
+      <c r="B148" s="113"/>
+      <c r="C148" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="D148" s="120" t="s">
-        <v>394</v>
+      <c r="D148" s="119" t="s">
+        <v>395</v>
       </c>
       <c r="E148" s="34"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="115"/>
-      <c r="B149" s="114"/>
-      <c r="C149" s="114" t="n">
+      <c r="A149" s="114"/>
+      <c r="B149" s="113"/>
+      <c r="C149" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="D149" s="120" t="s">
-        <v>395</v>
-      </c>
-      <c r="E149" s="125"/>
+      <c r="D149" s="119" t="s">
+        <v>396</v>
+      </c>
+      <c r="E149" s="124"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C150" s="114" t="n">
+      <c r="A150" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C150" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="D150" s="120" t="s">
-        <v>396</v>
-      </c>
-      <c r="E150" s="125"/>
+      <c r="D150" s="119" t="s">
+        <v>397</v>
+      </c>
+      <c r="E150" s="124"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="115"/>
-      <c r="B151" s="114"/>
-      <c r="C151" s="114" t="n">
+      <c r="A151" s="114"/>
+      <c r="B151" s="113"/>
+      <c r="C151" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="D151" s="120" t="s">
-        <v>397</v>
-      </c>
-      <c r="E151" s="125"/>
+      <c r="D151" s="119" t="s">
+        <v>398</v>
+      </c>
+      <c r="E151" s="124"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="115"/>
-      <c r="B152" s="114"/>
-      <c r="C152" s="114" t="n">
+      <c r="A152" s="114"/>
+      <c r="B152" s="113"/>
+      <c r="C152" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="D152" s="120" t="s">
-        <v>398</v>
-      </c>
-      <c r="E152" s="125"/>
+      <c r="D152" s="119" t="s">
+        <v>399</v>
+      </c>
+      <c r="E152" s="124"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C153" s="114" t="s">
-        <v>399</v>
-      </c>
-      <c r="D153" s="115" t="s">
+      <c r="A153" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C153" s="113" t="s">
         <v>400</v>
       </c>
+      <c r="D153" s="114" t="s">
+        <v>401</v>
+      </c>
       <c r="E153" s="34"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="B154" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C154" s="114" t="s">
-        <v>401</v>
-      </c>
-      <c r="D154" s="120" t="s">
+      <c r="A154" s="125" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C154" s="113" t="s">
         <v>402</v>
       </c>
+      <c r="D154" s="119" t="s">
+        <v>403</v>
+      </c>
       <c r="E154" s="34"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="B155" s="126" t="s">
-        <v>240</v>
-      </c>
-      <c r="C155" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="D155" s="120" t="s">
-        <v>403</v>
+      <c r="A155" s="125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="C155" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="D155" s="119" t="s">
+        <v>404</v>
       </c>
       <c r="E155" s="34"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="113" t="s">
-        <v>404</v>
-      </c>
-      <c r="B156" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C156" s="114" t="n">
+      <c r="A156" s="112" t="s">
+        <v>405</v>
+      </c>
+      <c r="B156" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C156" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D156" s="120" t="s">
-        <v>405</v>
+      <c r="D156" s="119" t="s">
+        <v>406</v>
       </c>
       <c r="E156" s="34"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="113"/>
-      <c r="B157" s="114"/>
-      <c r="C157" s="114" t="n">
+      <c r="A157" s="112"/>
+      <c r="B157" s="113"/>
+      <c r="C157" s="113" t="n">
         <v>255</v>
       </c>
-      <c r="D157" s="120" t="s">
-        <v>406</v>
+      <c r="D157" s="119" t="s">
+        <v>407</v>
       </c>
       <c r="E157" s="34"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="113" t="s">
-        <v>407</v>
-      </c>
-      <c r="B158" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C158" s="114" t="n">
+      <c r="A158" s="112" t="s">
+        <v>408</v>
+      </c>
+      <c r="B158" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" s="113" t="n">
         <v>5</v>
       </c>
-      <c r="D158" s="120" t="s">
-        <v>408</v>
+      <c r="D158" s="119" t="s">
+        <v>409</v>
       </c>
       <c r="E158" s="34"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="113"/>
-      <c r="B159" s="114"/>
-      <c r="C159" s="114" t="n">
+      <c r="A159" s="112"/>
+      <c r="B159" s="113"/>
+      <c r="C159" s="113" t="n">
         <v>255</v>
       </c>
-      <c r="D159" s="120" t="s">
+      <c r="D159" s="119" t="s">
+        <v>410</v>
+      </c>
+      <c r="E159" s="34"/>
+      <c r="F159" s="121"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="112" t="s">
+        <v>411</v>
+      </c>
+      <c r="B160" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C160" s="113" t="n">
+        <v>6</v>
+      </c>
+      <c r="D160" s="119" t="s">
         <v>409</v>
       </c>
-      <c r="E159" s="34"/>
-      <c r="F159" s="122"/>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="113" t="s">
+      <c r="E160" s="34"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="112"/>
+      <c r="B161" s="113"/>
+      <c r="C161" s="113" t="n">
+        <v>255</v>
+      </c>
+      <c r="D161" s="119" t="s">
         <v>410</v>
       </c>
-      <c r="B160" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C160" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="D160" s="120" t="s">
-        <v>408</v>
-      </c>
-      <c r="E160" s="34"/>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="113"/>
-      <c r="B161" s="114"/>
-      <c r="C161" s="114" t="n">
-        <v>255</v>
-      </c>
-      <c r="D161" s="120" t="s">
-        <v>409</v>
-      </c>
       <c r="E161" s="34"/>
-      <c r="F161" s="122"/>
+      <c r="F161" s="121"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="115" t="s">
+      <c r="A162" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="B162" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C162" s="114" t="n">
+      <c r="B162" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C162" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="D162" s="120" t="s">
-        <v>411</v>
+      <c r="D162" s="119" t="s">
+        <v>412</v>
       </c>
       <c r="E162" s="34"/>
       <c r="F162" s="33"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="115"/>
-      <c r="B163" s="114"/>
-      <c r="C163" s="114" t="n">
+      <c r="A163" s="114"/>
+      <c r="B163" s="113"/>
+      <c r="C163" s="113" t="n">
         <f aca="false">C162+1</f>
         <v>1</v>
       </c>
-      <c r="D163" s="120" t="s">
-        <v>412</v>
+      <c r="D163" s="119" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="115"/>
-      <c r="B164" s="114"/>
-      <c r="C164" s="114" t="n">
+      <c r="A164" s="114"/>
+      <c r="B164" s="113"/>
+      <c r="C164" s="113" t="n">
         <f aca="false">C163+1</f>
         <v>2</v>
       </c>
-      <c r="D164" s="120" t="s">
-        <v>413</v>
+      <c r="D164" s="119" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="115"/>
-      <c r="B165" s="114"/>
-      <c r="C165" s="114" t="n">
+      <c r="A165" s="114"/>
+      <c r="B165" s="113"/>
+      <c r="C165" s="113" t="n">
         <f aca="false">C164+1</f>
         <v>3</v>
       </c>
-      <c r="D165" s="120" t="s">
-        <v>414</v>
+      <c r="D165" s="119" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="115"/>
-      <c r="B166" s="114"/>
-      <c r="C166" s="114" t="n">
+      <c r="A166" s="114"/>
+      <c r="B166" s="113"/>
+      <c r="C166" s="113" t="n">
         <f aca="false">C165+1</f>
         <v>4</v>
       </c>
-      <c r="D166" s="120" t="s">
-        <v>415</v>
+      <c r="D166" s="119" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="115"/>
-      <c r="B167" s="114"/>
-      <c r="C167" s="114" t="n">
+      <c r="A167" s="114"/>
+      <c r="B167" s="113"/>
+      <c r="C167" s="113" t="n">
         <f aca="false">C166+1</f>
         <v>5</v>
       </c>
-      <c r="D167" s="120" t="s">
-        <v>142</v>
+      <c r="D167" s="119" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="115"/>
-      <c r="B168" s="114"/>
-      <c r="C168" s="114" t="n">
+      <c r="A168" s="114"/>
+      <c r="B168" s="113"/>
+      <c r="C168" s="113" t="n">
         <f aca="false">C167+1</f>
         <v>6</v>
       </c>
-      <c r="D168" s="120" t="s">
-        <v>265</v>
+      <c r="D168" s="119" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="115"/>
-      <c r="B169" s="114"/>
-      <c r="C169" s="114" t="n">
+      <c r="A169" s="114"/>
+      <c r="B169" s="113"/>
+      <c r="C169" s="113" t="n">
         <f aca="false">C168+1</f>
         <v>7</v>
       </c>
-      <c r="D169" s="120" t="s">
-        <v>416</v>
+      <c r="D169" s="119" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="115"/>
-      <c r="B170" s="114"/>
-      <c r="C170" s="114" t="n">
+      <c r="A170" s="114"/>
+      <c r="B170" s="113"/>
+      <c r="C170" s="113" t="n">
         <f aca="false">C169+1</f>
         <v>8</v>
       </c>
-      <c r="D170" s="120" t="s">
-        <v>417</v>
+      <c r="D170" s="119" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="115"/>
-      <c r="B171" s="114"/>
-      <c r="C171" s="114" t="n">
+      <c r="A171" s="114"/>
+      <c r="B171" s="113"/>
+      <c r="C171" s="113" t="n">
         <f aca="false">C170+1</f>
         <v>9</v>
       </c>
-      <c r="D171" s="120" t="s">
-        <v>418</v>
+      <c r="D171" s="119" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="115"/>
-      <c r="B172" s="114"/>
-      <c r="C172" s="114" t="n">
+      <c r="A172" s="114"/>
+      <c r="B172" s="113"/>
+      <c r="C172" s="113" t="n">
         <f aca="false">C171+1</f>
         <v>10</v>
       </c>
-      <c r="D172" s="120" t="s">
-        <v>419</v>
+      <c r="D172" s="119" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="115"/>
-      <c r="B173" s="114"/>
-      <c r="C173" s="114" t="n">
+      <c r="A173" s="114"/>
+      <c r="B173" s="113"/>
+      <c r="C173" s="113" t="n">
         <f aca="false">C172+1</f>
         <v>11</v>
       </c>
-      <c r="D173" s="120" t="s">
-        <v>420</v>
+      <c r="D173" s="119" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="115"/>
-      <c r="B174" s="114"/>
-      <c r="C174" s="114" t="n">
+      <c r="A174" s="114"/>
+      <c r="B174" s="113"/>
+      <c r="C174" s="113" t="n">
         <f aca="false">C173+1</f>
         <v>12</v>
       </c>
-      <c r="D174" s="120" t="s">
+      <c r="D174" s="119" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="115"/>
-      <c r="B175" s="114"/>
-      <c r="C175" s="114" t="n">
+      <c r="A175" s="114"/>
+      <c r="B175" s="113"/>
+      <c r="C175" s="113" t="n">
         <f aca="false">C174+1</f>
         <v>13</v>
       </c>
-      <c r="D175" s="120" t="s">
+      <c r="D175" s="119" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="115"/>
-      <c r="B176" s="114"/>
-      <c r="C176" s="114" t="n">
+      <c r="A176" s="114"/>
+      <c r="B176" s="113"/>
+      <c r="C176" s="113" t="n">
         <f aca="false">C175+1</f>
         <v>14</v>
       </c>
-      <c r="D176" s="120" t="s">
-        <v>421</v>
+      <c r="D176" s="119" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="115"/>
-      <c r="B177" s="114"/>
-      <c r="C177" s="114" t="n">
+      <c r="A177" s="114"/>
+      <c r="B177" s="113"/>
+      <c r="C177" s="113" t="n">
         <f aca="false">C176+1</f>
         <v>15</v>
       </c>
-      <c r="D177" s="120" t="s">
-        <v>422</v>
+      <c r="D177" s="119" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="115"/>
-      <c r="B178" s="114"/>
-      <c r="C178" s="114" t="n">
+      <c r="A178" s="114"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="113" t="n">
         <f aca="false">C177+1</f>
         <v>16</v>
       </c>
-      <c r="D178" s="120" t="s">
-        <v>423</v>
+      <c r="D178" s="119" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="115"/>
-      <c r="B179" s="114"/>
-      <c r="C179" s="114" t="n">
+      <c r="A179" s="114"/>
+      <c r="B179" s="113"/>
+      <c r="C179" s="113" t="n">
         <f aca="false">C178+1</f>
         <v>17</v>
       </c>
-      <c r="D179" s="120" t="s">
-        <v>424</v>
+      <c r="D179" s="119" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="115"/>
-      <c r="B180" s="114"/>
-      <c r="C180" s="114" t="n">
+      <c r="A180" s="114"/>
+      <c r="B180" s="113"/>
+      <c r="C180" s="113" t="n">
         <f aca="false">C179+1</f>
         <v>18</v>
       </c>
-      <c r="D180" s="120" t="s">
-        <v>425</v>
+      <c r="D180" s="119" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="115"/>
-      <c r="B181" s="114"/>
-      <c r="C181" s="114" t="n">
+      <c r="A181" s="114"/>
+      <c r="B181" s="113"/>
+      <c r="C181" s="113" t="n">
         <f aca="false">C180+1</f>
         <v>19</v>
       </c>
-      <c r="D181" s="120" t="s">
-        <v>426</v>
+      <c r="D181" s="119" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="115"/>
-      <c r="B182" s="114"/>
-      <c r="C182" s="114" t="n">
+      <c r="A182" s="114"/>
+      <c r="B182" s="113"/>
+      <c r="C182" s="113" t="n">
         <f aca="false">C181+1</f>
         <v>20</v>
       </c>
-      <c r="D182" s="120" t="s">
-        <v>427</v>
+      <c r="D182" s="119" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="115"/>
-      <c r="B183" s="114"/>
-      <c r="C183" s="114" t="n">
+      <c r="A183" s="114"/>
+      <c r="B183" s="113"/>
+      <c r="C183" s="113" t="n">
         <f aca="false">C182+1</f>
         <v>21</v>
       </c>
-      <c r="D183" s="120" t="s">
-        <v>428</v>
+      <c r="D183" s="119" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="115"/>
-      <c r="B184" s="114"/>
-      <c r="C184" s="114" t="n">
+      <c r="A184" s="114"/>
+      <c r="B184" s="113"/>
+      <c r="C184" s="113" t="n">
         <f aca="false">C183+1</f>
         <v>22</v>
       </c>
-      <c r="D184" s="120" t="s">
-        <v>429</v>
+      <c r="D184" s="119" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="115"/>
-      <c r="B185" s="114"/>
-      <c r="C185" s="114" t="n">
+      <c r="A185" s="114"/>
+      <c r="B185" s="113"/>
+      <c r="C185" s="113" t="n">
         <f aca="false">C184+1</f>
         <v>23</v>
       </c>
-      <c r="D185" s="120" t="s">
-        <v>430</v>
+      <c r="D185" s="119" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="115"/>
-      <c r="B186" s="114"/>
-      <c r="C186" s="114" t="n">
+      <c r="A186" s="114"/>
+      <c r="B186" s="113"/>
+      <c r="C186" s="113" t="n">
         <f aca="false">C185+1</f>
         <v>24</v>
       </c>
-      <c r="D186" s="120" t="s">
-        <v>431</v>
+      <c r="D186" s="119" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="115"/>
-      <c r="B187" s="114"/>
-      <c r="C187" s="114" t="n">
+      <c r="A187" s="114"/>
+      <c r="B187" s="113"/>
+      <c r="C187" s="113" t="n">
         <f aca="false">C186+1</f>
         <v>25</v>
       </c>
-      <c r="D187" s="120" t="s">
-        <v>432</v>
+      <c r="D187" s="119" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="115"/>
-      <c r="B188" s="114"/>
-      <c r="C188" s="114" t="n">
+      <c r="A188" s="114"/>
+      <c r="B188" s="113"/>
+      <c r="C188" s="113" t="n">
         <f aca="false">C187+1</f>
         <v>26</v>
       </c>
-      <c r="D188" s="120" t="s">
-        <v>433</v>
+      <c r="D188" s="119" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="115"/>
-      <c r="B189" s="114"/>
-      <c r="C189" s="114" t="n">
+      <c r="A189" s="114"/>
+      <c r="B189" s="113"/>
+      <c r="C189" s="113" t="n">
         <f aca="false">C188+1</f>
         <v>27</v>
       </c>
-      <c r="D189" s="120" t="s">
-        <v>434</v>
+      <c r="D189" s="119" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="115"/>
-      <c r="B190" s="114"/>
-      <c r="C190" s="114" t="n">
+      <c r="A190" s="114"/>
+      <c r="B190" s="113"/>
+      <c r="C190" s="113" t="n">
         <f aca="false">C189+1</f>
         <v>28</v>
       </c>
-      <c r="D190" s="120" t="s">
-        <v>435</v>
+      <c r="D190" s="119" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="115"/>
-      <c r="B191" s="114"/>
-      <c r="C191" s="114" t="n">
+      <c r="A191" s="114"/>
+      <c r="B191" s="113"/>
+      <c r="C191" s="113" t="n">
         <v>65535</v>
       </c>
-      <c r="D191" s="120" t="s">
-        <v>436</v>
+      <c r="D191" s="119" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="126" t="s">
+      <c r="A192" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="B192" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="C192" s="114" t="s">
-        <v>437</v>
-      </c>
-      <c r="D192" s="120" t="s">
+      <c r="B192" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C192" s="113" t="s">
         <v>438</v>
       </c>
+      <c r="D192" s="119" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="126" t="s">
+      <c r="A193" s="125" t="s">
         <v>175</v>
       </c>
-      <c r="B193" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="C193" s="114" t="s">
-        <v>437</v>
-      </c>
-      <c r="D193" s="120" t="s">
-        <v>439</v>
+      <c r="B193" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="C193" s="113" t="s">
+        <v>438</v>
+      </c>
+      <c r="D193" s="119" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="115" t="s">
-        <v>216</v>
-      </c>
-      <c r="B194" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="C194" s="114" t="s">
-        <v>440</v>
-      </c>
-      <c r="D194" s="127" t="s">
+      <c r="A194" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="B194" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C194" s="113" t="s">
         <v>441</v>
       </c>
+      <c r="D194" s="126" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B195" s="114"/>
-      <c r="C195" s="114"/>
-      <c r="D195" s="127" t="s">
-        <v>442</v>
+      <c r="A195" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B195" s="113"/>
+      <c r="C195" s="113"/>
+      <c r="D195" s="126" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/heatpump/modbus_wwp.xlsx
+++ b/heatpump/modbus_wwp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Konfiguration" sheetId="1" state="visible" r:id="rId2"/>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Konfiguration DE2</t>
   </si>
   <si>
-    <t xml:space="preserve"> It depends on your heat pump configuration what the SG Ready 1 and SG Ready 2 inputs are delivering</t>
+    <t xml:space="preserve"> 35101 It depends on your heat pump configuration what the SG Ready 1 and SG Ready 2 inputs are delivering</t>
   </si>
   <si>
     <t xml:space="preserve">Statistik</t>
@@ -4073,7 +4073,7 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -4987,8 +4987,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5406,6 +5406,7 @@
         <v>186</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>214</v>
